--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
   <si>
     <t>网页</t>
   </si>
@@ -459,15 +459,24 @@
     <t>对于测试集中的一个用户u和物品i，令rui是用户u对物品i的实际评分，而rui是推荐算法给出的预测评分</t>
   </si>
   <si>
+    <t>应用场景：需要用户评分信息，评分信息较多时</t>
+  </si>
+  <si>
     <t>RMSE(均方根误差)</t>
   </si>
   <si>
     <t>MAE(均方误差)</t>
   </si>
   <si>
+    <t>RMSE越小表示误差越小，推荐系统的性能就越好</t>
+  </si>
+  <si>
     <t>F1 score</t>
   </si>
   <si>
+    <t>2、MAE(均方误差)</t>
+  </si>
+  <si>
     <t>统计计算precision和recall</t>
   </si>
   <si>
@@ -478,6 +487,72 @@
   </si>
   <si>
     <t>f1 score</t>
+  </si>
+  <si>
+    <t>3、F1 score(包括recall和precision)</t>
+  </si>
+  <si>
+    <t>应用场景：当没有用户评分信息时，或者评分信息较少</t>
+  </si>
+  <si>
+    <t>举例：</t>
+  </si>
+  <si>
+    <t>（1）recall</t>
+  </si>
+  <si>
+    <t>此时recall=6/10=0.6，recall越大表示包含了越多给用户推荐的商品</t>
+  </si>
+  <si>
+    <t>（2）precision</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>此时precision=6/50=0.12,precision越大表示了推荐的商品数量越少，即推荐的更精准</t>
+  </si>
+  <si>
+    <t>综合（1）+（2）</t>
+  </si>
+  <si>
+    <t>F的值越大说明推荐系统的性能越好</t>
+  </si>
+  <si>
+    <t>4、A/B testing</t>
+  </si>
+  <si>
+    <t>分组推荐，可以不止是A和B，越多消耗资源越大</t>
+  </si>
+  <si>
+    <t>二、线上评估（应用于商业）</t>
+  </si>
+  <si>
+    <t>1、CTR和CR</t>
+  </si>
+  <si>
+    <t>CTR(点击率Click Through Rate)</t>
+  </si>
+  <si>
+    <t>CR（转化率 Conversion Rate）</t>
+  </si>
+  <si>
+    <t>2、ROI和QA</t>
+  </si>
+  <si>
+    <t>关键在于定义合理的回报和投资，ROI越大推荐系统性能越好</t>
+  </si>
+  <si>
+    <t>当凭借算法评价推荐系统的性能不理想时，可以专门成立一个QA小组来测试推荐系统，根据个人经验判断。</t>
+  </si>
+  <si>
+    <t>————————————————</t>
+  </si>
+  <si>
+    <t>版权声明：本文为CSDN博主「纵死侠骨香」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。</t>
+  </si>
+  <si>
+    <t>原文链接：https://blog.csdn.net/qq_41808387/article/details/104942820</t>
   </si>
   <si>
     <t>movie_user表</t>
@@ -546,18 +621,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -587,24 +674,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,17 +688,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,32 +703,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,8 +741,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +780,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -709,8 +795,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,13 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +842,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,49 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,103 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,20 +1140,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,15 +1181,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1134,6 +1201,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1148,6 +1224,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1156,10 +1243,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,137 +1255,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,6 +1404,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1389,13 +1482,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1824,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1303020" y="1805940"/>
+              <a:off x="1303020" y="1813560"/>
               <a:ext cx="2070100" cy="787400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1772,7 +1865,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1272540" y="3307080"/>
+              <a:off x="1272540" y="3314700"/>
               <a:ext cx="1727200" cy="787400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1813,7 +1906,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1257300" y="6659880"/>
+              <a:off x="1257300" y="6697980"/>
               <a:ext cx="2540000" cy="419100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1854,7 +1947,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1219200" y="5852160"/>
+              <a:off x="1219200" y="5890260"/>
               <a:ext cx="2768600" cy="419100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1880,7 +1973,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>386080</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1895,7 +1988,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1249680" y="7559040"/>
+              <a:off x="1249680" y="7597140"/>
               <a:ext cx="1574800" cy="419100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1908,6 +2001,342 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918960" y="1356360"/>
+          <a:ext cx="4320540" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7063740" y="5676900"/>
+          <a:ext cx="3032760" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6652260" y="10050780"/>
+          <a:ext cx="4770120" cy="2788920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="14897100"/>
+          <a:ext cx="3977640" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11742420" y="14417040"/>
+          <a:ext cx="4617720" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8168640" y="16809720"/>
+          <a:ext cx="4053840" cy="1051560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12367260" y="16855440"/>
+          <a:ext cx="4671060" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8214360" y="18402300"/>
+          <a:ext cx="3589020" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2186,83 +2615,83 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:10">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="J8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="26">
         <v>1</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="12"/>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="12"/>
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="26">
         <v>1</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2271,11 +2700,11 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="18" spans="16:17">
       <c r="P18" s="1" t="s">
@@ -2286,16 +2715,16 @@
       </c>
     </row>
     <row r="19" spans="10:17">
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="41">
         <v>0</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="41">
         <v>5</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -2309,21 +2738,21 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="J20" s="38" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="J20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="41">
         <v>1</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="41" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -2337,167 +2766,167 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="9"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="J21" s="38" t="s">
+      <c r="F21" s="12"/>
+      <c r="J21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="41">
         <v>3</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="26">
         <v>1</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="26">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
+      <c r="F22" s="12"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="26">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="M23" s="40"/>
+      <c r="F23" s="12"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="26">
         <v>1</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="26">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="O24"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="40.05" customHeight="1"/>
     <row r="28" ht="40.05" customHeight="1"/>
-    <row r="29" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B29" s="36" t="s">
+    <row r="29" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B30" s="36" t="s">
+    <row r="30" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B30" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B31" s="36" t="s">
+    <row r="31" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B32" s="36" t="s">
+    <row r="32" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B33" s="36" t="s">
+    <row r="33" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B34" s="36" t="s">
+    <row r="34" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B34" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" s="35" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B35" s="36" t="s">
+    <row r="35" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B35" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2530,103 +2959,103 @@
   </cols>
   <sheetData>
     <row r="6" ht="15.6" spans="3:3">
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="4:9">
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="26">
         <v>8</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="26">
         <v>30</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="11">
         <v>52</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
         <v>74</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="11">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="4:9">
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="26">
         <v>10</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <v>20</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="11">
         <v>30</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <v>40</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="11">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="11">
         <v>2</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="11">
         <v>4</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="11">
         <v>8</v>
       </c>
     </row>
@@ -2656,569 +3085,569 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="20" customHeight="1" spans="12:19">
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11">
         <v>3</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="11">
         <v>3</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="11">
         <v>3</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <v>2</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="11">
         <v>3</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="12:19">
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="12:18">
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>3</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <f>1/(L4*N2)</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="11">
         <f>2/9</f>
         <v>0.222222222222222</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="11">
         <f>1/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <f>3/9</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="12:19">
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>3</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:19">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="L6" s="9">
+      <c r="J6" s="29"/>
+      <c r="L6" s="11">
         <v>3</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:20">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="L7" s="9">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="L7" s="11">
         <v>2</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:20">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="L8" s="9">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="11">
         <v>3</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="3:20">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="L9" s="9">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="11">
         <v>3</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="3:20">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="3:20">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="3:15">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="3:19">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="11" t="s">
         <v>57</v>
       </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="3:19">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="26">
         <v>4</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="26">
         <v>3</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26">
         <v>5</v>
       </c>
-      <c r="R14" s="24"/>
+      <c r="R14" s="26"/>
       <c r="S14" s="2"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="3:19">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="26">
         <v>4</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
         <v>5</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26">
         <v>1</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="9" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="26">
         <v>5</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24">
+      <c r="N15" s="26"/>
+      <c r="O15" s="26">
         <v>4</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24">
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26">
         <v>4</v>
       </c>
-      <c r="R15" s="24"/>
+      <c r="R15" s="26"/>
       <c r="S15" s="2"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="3:19">
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="26">
         <v>2</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="26">
         <v>3</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="26">
         <v>3</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="26">
         <v>4</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24">
+      <c r="N16" s="26"/>
+      <c r="O16" s="26">
         <v>5</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="26">
         <v>3</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="26">
         <v>4</v>
       </c>
-      <c r="R16" s="24"/>
+      <c r="R16" s="26"/>
       <c r="S16" s="2"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="3:19">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
         <v>3</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
         <v>3</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="9" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24">
+      <c r="M17" s="26"/>
+      <c r="N17" s="26">
         <v>3</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24">
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26">
         <v>5</v>
       </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="3:19">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
         <v>3</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11">
         <v>3</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="9" t="s">
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26">
         <v>4</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24">
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26">
         <v>4</v>
       </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:19">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11">
         <v>3</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
         <v>4</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="9" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24">
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26">
         <v>2</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="26">
         <v>4</v>
       </c>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24">
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26">
         <v>5</v>
       </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="3:19">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <f t="shared" ref="D20:I20" si="0">COUNT(D15:D19)</f>
         <v>4</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="12"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="9">
+      <c r="M20" s="11">
         <f t="shared" ref="M20:R20" si="1">COUNT(M14:M19)</f>
         <v>3</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S20" s="2"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="3:3">
-      <c r="C21" s="25"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="3:3">
-      <c r="C22" s="25"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="3:3">
-      <c r="C23" s="25"/>
+      <c r="C23" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3246,214 +3675,214 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <f>ABS(B7-$C$6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <f>ABS(B7-$D$6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <f>ABS(B7-$E$6)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="str">
+      <c r="F7" s="11" t="str">
         <f>IF(MATCH(MIN(C7:E7),C7:E7)=1,$C$5,IF(MATCH(MIN(C7:E7),C7:E7)=2,$D$5,$E$5))</f>
         <v>z1</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <f t="shared" ref="C8:C15" si="0">ABS(B8-$C$6)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <f t="shared" ref="D8:D15" si="1">ABS(B8-$D$6)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <f t="shared" ref="E8:E15" si="2">ABS(B8-$E$6)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="11" t="str">
         <f t="shared" ref="F8" si="3">IF(MATCH(MIN(C8:E8),C8:E8)=1,$C$5,IF(MATCH(MIN(C8:E8),C8:E8)=2,$D$5,$E$5))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="9">
+      <c r="B11" s="11">
         <v>26</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="9">
+      <c r="B12" s="11">
         <v>32</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="9">
+      <c r="B13" s="11">
         <v>16</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <v>21</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="9">
+      <c r="B15" s="11">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="23" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3464,426 +3893,426 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>5</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>18.28</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="11">
         <v>5</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="11">
         <v>21.8</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="24">
         <f>ABS(B23-$C$22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="24">
         <f>ABS(B23-$D$22)</f>
         <v>4</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="25">
         <f>ABS(B23-$E$22)</f>
         <v>17.28</v>
       </c>
-      <c r="F23" s="9" t="str">
+      <c r="F23" s="11" t="str">
         <f>IF(MATCH(MIN(C23:E23),C23:E23)=1,$C$21,IF(MATCH(MIN(C23:E23),C23:E23)=2,$D$21,$E$21))</f>
         <v>z1</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <v>1</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="24">
         <f>ABS(H23-$I$22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="24">
         <f t="shared" ref="J23:J31" si="4">ABS(H23-$D$22)</f>
         <v>4</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="25">
         <f>ABS(H23-$K$22)</f>
         <v>20.8</v>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="11" t="str">
         <f>IF(MATCH(MIN(I23:K23),I23:K23)=1,$C$21,IF(MATCH(MIN(I23:K23),I23:K23)=2,$D$21,$E$21))</f>
         <v>z1</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="9">
+      <c r="B24" s="11">
         <v>5</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="24">
         <f t="shared" ref="C24:C31" si="5">ABS(B24-$C$22)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="24">
         <f t="shared" ref="D24:D31" si="6">ABS(B24-$D$22)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="25">
         <f t="shared" ref="E24:E31" si="7">ABS(B24-$E$22)</f>
         <v>13.28</v>
       </c>
-      <c r="F24" s="9" t="str">
+      <c r="F24" s="11" t="str">
         <f>IF(MATCH(MIN(C24:E24),C24:E24)=1,$C$21,IF(MATCH(MIN(C24:E24),C24:E24)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="11">
         <v>5</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="24">
         <f t="shared" ref="I24:I31" si="8">ABS(H24-$I$22)</f>
         <v>4</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="25">
         <f t="shared" ref="K24:K31" si="9">ABS(H24-$K$22)</f>
         <v>16.8</v>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="11" t="str">
         <f t="shared" ref="L23:L25" si="10">IF(MATCH(MIN(I24:K24),I24:K24)=1,$C$21,IF(MATCH(MIN(I24:K24),I24:K24)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="9">
+      <c r="B25" s="11">
         <v>10</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="24">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="24">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="25">
         <f t="shared" si="7"/>
         <v>8.28</v>
       </c>
-      <c r="F25" s="9" t="str">
+      <c r="F25" s="11" t="str">
         <f>IF(MATCH(MIN(C25:E25),C25:E25)=1,$C$21,IF(MATCH(MIN(C25:E25),C25:E25)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="11">
         <v>10</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="24">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="24">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="25">
         <f t="shared" si="9"/>
         <v>11.8</v>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" s="11" t="str">
         <f t="shared" si="10"/>
         <v>z2</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="9">
+      <c r="B26" s="11">
         <v>9</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="24">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="24">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="25">
         <f t="shared" si="7"/>
         <v>9.28</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="11" t="str">
         <f t="shared" ref="F26:F31" si="11">IF(MATCH(MIN(C26:E26),C26:E26,0)=1,$C$21,IF(MATCH(MIN(C26:E26),C26:E26,0)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="11">
         <v>9</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="24">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="24">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="25">
         <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" s="11" t="str">
         <f t="shared" ref="L26:L31" si="12">IF(MATCH(MIN(I26:K26),I26:K26,0)=1,$C$21,IF(MATCH(MIN(I26:K26),I26:K26,0)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="9">
+      <c r="B27" s="11">
         <v>26</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="24">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="24">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="25">
         <f t="shared" si="7"/>
         <v>7.72</v>
       </c>
-      <c r="F27" s="24" t="str">
+      <c r="F27" s="26" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="11">
         <v>26</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="24">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="25">
         <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
-      <c r="L27" s="24" t="str">
+      <c r="L27" s="26" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="9">
+      <c r="B28" s="11">
         <v>32</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="24">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="24">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="25">
         <f t="shared" si="7"/>
         <v>13.72</v>
       </c>
-      <c r="F28" s="24" t="str">
+      <c r="F28" s="26" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="11">
         <v>32</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="24">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="24">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="25">
         <f t="shared" si="9"/>
         <v>10.2</v>
       </c>
-      <c r="L28" s="24" t="str">
+      <c r="L28" s="26" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="9">
+      <c r="B29" s="11">
         <v>16</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="24">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="24">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="25">
         <f t="shared" si="7"/>
         <v>2.28</v>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="F29" s="26" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="11">
         <v>16</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="24">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="24">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="25">
         <f t="shared" si="9"/>
         <v>5.8</v>
       </c>
-      <c r="L29" s="24" t="str">
+      <c r="L29" s="26" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="9">
+      <c r="B30" s="11">
         <v>21</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="24">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="24">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="25">
         <f t="shared" si="7"/>
         <v>2.72</v>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="F30" s="26" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="11">
         <v>21</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="24">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="25">
         <f t="shared" si="9"/>
         <v>0.800000000000001</v>
       </c>
-      <c r="L30" s="24" t="str">
+      <c r="L30" s="26" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="9">
+      <c r="B31" s="11">
         <v>14</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="24">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="24">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="25">
         <f t="shared" si="7"/>
         <v>4.28</v>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="26" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="11">
         <v>14</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="24">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="24">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="25">
         <f t="shared" si="9"/>
         <v>7.8</v>
       </c>
-      <c r="L31" s="24" t="str">
+      <c r="L31" s="26" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
@@ -3968,127 +4397,127 @@
   <sheetData>
     <row r="14" ht="15.15"/>
     <row r="15" ht="20" customHeight="1" spans="2:8">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="8:8">
-      <c r="H16" s="8"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:8">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="8:8">
-      <c r="H18" s="8"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="8:8">
-      <c r="H19" s="8"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="8:8">
-      <c r="H20" s="8"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:8">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="8:8">
-      <c r="H23" s="8"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="8:8">
-      <c r="H24" s="8"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="8:8">
-      <c r="H25" s="8"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:8">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:8">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:8">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:8">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:8">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:8">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4109,13 +4538,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:C41"/>
+  <dimension ref="C1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
@@ -4140,40 +4569,189 @@
         <v>87</v>
       </c>
     </row>
+    <row r="6" ht="15" spans="12:12">
+      <c r="L6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" ht="15"/>
+    <row r="25" ht="15" spans="13:13">
+      <c r="M25" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="13:13">
+      <c r="M27" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="13:13">
+      <c r="M28" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15">
+      <c r="O30"/>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" ht="15"/>
+    <row r="44" ht="15"/>
+    <row r="56" spans="12:12">
+      <c r="L56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12">
+      <c r="L57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12">
+      <c r="L59" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12">
+      <c r="L63" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13">
+      <c r="M66"/>
+    </row>
+    <row r="70" spans="12:12">
+      <c r="L70" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12">
+      <c r="L72" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12">
+      <c r="L75" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12">
+      <c r="L79" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12">
+      <c r="L85" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12">
+      <c r="F87"/>
+      <c r="L87" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="12:12">
+      <c r="L90" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="12:12">
+      <c r="L92" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12">
+      <c r="L93" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="12:12">
+      <c r="L94" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12">
+      <c r="L96" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12">
+      <c r="L98" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12">
+      <c r="L101" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="12:12">
+      <c r="L103" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12">
+      <c r="L104" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12">
+      <c r="L105" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12">
+      <c r="L106" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4296,7 +4874,7 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>386080</xdr:colOff>
                 <xdr:row>43</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>106680</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4326,7 +4904,7 @@
   <sheetData>
     <row r="8" ht="20" customHeight="1" spans="4:12">
       <c r="D8" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4334,15 +4912,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="4:9">
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4403,78 +4981,78 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4506,201 +5084,201 @@
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="H5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="I5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="K5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="O5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="P5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>141</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
       <c r="C6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="K6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2">
         <f ca="1" t="shared" si="0"/>
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="N6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="K7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="M7" s="2">
         <f ca="1" t="shared" si="0"/>
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="N7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="O7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="K8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="M8" s="2">
         <f ca="1" t="shared" si="0"/>
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="N8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="O8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>40</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="3:16">

--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="11520" windowHeight="9275" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
   <si>
     <t>网页</t>
   </si>
@@ -471,24 +471,9 @@
     <t>RMSE越小表示误差越小，推荐系统的性能就越好</t>
   </si>
   <si>
-    <t>F1 score</t>
-  </si>
-  <si>
     <t>2、MAE(均方误差)</t>
   </si>
   <si>
-    <t>统计计算precision和recall</t>
-  </si>
-  <si>
-    <t>精准度 / 查准率(precision)：指被分类器判定正例中的正样本的比重</t>
-  </si>
-  <si>
-    <t>召回率 / 查全率 (recall)：指的是被预测为正例的占总的正例的比重</t>
-  </si>
-  <si>
-    <t>f1 score</t>
-  </si>
-  <si>
     <t>3、F1 score(包括recall和precision)</t>
   </si>
   <si>
@@ -546,13 +531,133 @@
     <t>当凭借算法评价推荐系统的性能不理想时，可以专门成立一个QA小组来测试推荐系统，根据个人经验判断。</t>
   </si>
   <si>
-    <t>————————————————</t>
-  </si>
-  <si>
-    <t>版权声明：本文为CSDN博主「纵死侠骨香」的原创文章，遵循CC 4.0 BY-SA版权协议，转载请附上原文出处链接及本声明。</t>
-  </si>
-  <si>
-    <t>原文链接：https://blog.csdn.net/qq_41808387/article/details/104942820</t>
+    <t>混淆矩阵</t>
+  </si>
+  <si>
+    <t>真实结果</t>
+  </si>
+  <si>
+    <t>预测结果</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>真真</t>
+  </si>
+  <si>
+    <t>真</t>
+  </si>
+  <si>
+    <t>假</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>假真</t>
+  </si>
+  <si>
+    <t>True Positive</t>
+  </si>
+  <si>
+    <t>True Negative</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>真假</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>False Negative</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>假假</t>
+  </si>
+  <si>
+    <t>准确率</t>
+  </si>
+  <si>
+    <t>真真+假假</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>真真+假假+真假+假真</t>
+  </si>
+  <si>
+    <t>预测正确</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>精确率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真真 </t>
+  </si>
+  <si>
+    <t>真真+假真</t>
+  </si>
+  <si>
+    <t>预测为真中的正确的</t>
+  </si>
+  <si>
+    <t>召回率</t>
+  </si>
+  <si>
+    <t>真真+真假</t>
+  </si>
+  <si>
+    <t>真的中多少预测正确</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>2*精确率*召回率</t>
+  </si>
+  <si>
+    <t>精确率+召回率</t>
+  </si>
+  <si>
+    <t>真正例率</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>预测正确中的</t>
+  </si>
+  <si>
+    <t>假真例率</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>真假+假真</t>
+  </si>
+  <si>
+    <t>roc 曲线</t>
   </si>
   <si>
     <t>movie_user表</t>
@@ -620,14 +725,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -647,6 +760,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="16.5"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -660,6 +780,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -667,7 +794,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,58 +892,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -742,46 +901,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,15 +916,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,13 +938,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,19 +1034,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,115 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,37 +1130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1267,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1158,6 +1295,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,7 +1327,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,15 +1347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1224,17 +1361,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1243,10 +1369,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,137 +1381,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,24 +1530,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,42 +1581,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,22 +1626,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1571,8 +1721,8 @@
   <colors>
     <mruColors>
       <color rgb="00000000"/>
+      <color rgb="00FFFFFF"/>
       <color rgb="00FFFF00"/>
-      <color rgb="00FFFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1806,8 +1956,8 @@
           <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>325120</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>866140</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>33020</xdr:rowOff>
         </xdr:to>
@@ -1848,7 +1998,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>561340</xdr:colOff>
+          <xdr:colOff>492760</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>71120</xdr:rowOff>
         </xdr:to>
@@ -1878,129 +2028,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4101" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4101"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1257300" y="6697980"/>
-              <a:ext cx="2540000" cy="419100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>330200</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4102" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4102"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1219200" y="5890260"/>
-              <a:ext cx="2768600" cy="419100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>386080</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4103" name="Object 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4103"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1249680" y="7597140"/>
-              <a:ext cx="1574800" cy="419100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2009,8 +2036,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -2029,7 +2056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6918960" y="1356360"/>
+          <a:off x="8267700" y="1356360"/>
           <a:ext cx="4320540" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2051,8 +2078,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -2071,7 +2098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7063740" y="5676900"/>
+          <a:off x="8412480" y="5669280"/>
           <a:ext cx="3032760" cy="883920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2087,16 +2114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,7 +2140,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6652260" y="10050780"/>
+          <a:off x="8054340" y="10073640"/>
           <a:ext cx="4770120" cy="2788920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2155,7 +2182,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="14897100"/>
+          <a:off x="9707880" y="14874240"/>
           <a:ext cx="3977640" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2197,7 +2224,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11742420" y="14417040"/>
+          <a:off x="13754100" y="14394180"/>
           <a:ext cx="4617720" cy="1623060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2239,7 +2266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8168640" y="16809720"/>
+          <a:off x="10180320" y="16786860"/>
           <a:ext cx="4053840" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2281,7 +2308,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12367260" y="16855440"/>
+          <a:off x="14378940" y="16832580"/>
           <a:ext cx="4671060" cy="861060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2297,16 +2324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2323,7 +2350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8214360" y="18402300"/>
+          <a:off x="8435340" y="19080480"/>
           <a:ext cx="3589020" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2615,83 +2642,83 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:10">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="J8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="34">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="34">
         <v>1</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="34">
         <v>1</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="20"/>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="20"/>
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="34">
         <v>1</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="34">
         <v>1</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2700,11 +2727,11 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="18" spans="16:17">
       <c r="P18" s="1" t="s">
@@ -2715,16 +2742,16 @@
       </c>
     </row>
     <row r="19" spans="10:17">
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="49">
         <v>0</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="49">
         <v>5</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -2738,21 +2765,21 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="J20" s="40" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="J20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="49">
         <v>1</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="49" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -2766,167 +2793,167 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="11"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="J21" s="40" t="s">
+      <c r="F21" s="20"/>
+      <c r="J21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="49">
         <v>3</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="49">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="34">
         <v>1</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="34">
         <v>1</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="19">
         <v>1</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
+      <c r="F22" s="20"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="34">
         <v>1</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="19">
         <v>1</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="M23" s="42"/>
+      <c r="F23" s="20"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="34">
         <v>1</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="34">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="O24"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" ht="40.05" customHeight="1"/>
     <row r="28" ht="40.05" customHeight="1"/>
-    <row r="29" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B29" s="38" t="s">
+    <row r="29" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B29" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B30" s="38" t="s">
+    <row r="30" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B30" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B31" s="38" t="s">
+    <row r="31" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B31" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B32" s="38" t="s">
+    <row r="32" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B33" s="38" t="s">
+    <row r="33" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B33" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B34" s="38" t="s">
+    <row r="34" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B34" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" s="37" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B35" s="38" t="s">
+    <row r="35" s="45" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
+      <c r="B35" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2959,103 +2986,103 @@
   </cols>
   <sheetData>
     <row r="6" ht="15.6" spans="3:3">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="31" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="4:9">
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="34">
         <v>8</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="34">
         <v>30</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="19">
         <v>52</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="19">
         <v>74</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="19">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="4:9">
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="34">
         <v>10</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="34">
         <v>20</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="19">
         <v>30</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="19">
         <v>40</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="19">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="19">
         <v>2</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="19">
         <v>4</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="19">
         <v>8</v>
       </c>
     </row>
@@ -3085,569 +3112,569 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="20" customHeight="1" spans="12:19">
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19">
         <v>3</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="19">
         <v>3</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="19">
         <v>3</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="19">
         <v>2</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="19">
         <v>3</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="12:19">
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="12:18">
-      <c r="L4" s="11">
+      <c r="L4" s="19">
         <v>3</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="19">
         <f>1/(L4*N2)</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="19">
         <f>2/9</f>
         <v>0.222222222222222</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="19">
         <f>1/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="19">
         <f>3/9</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="12:19">
-      <c r="L5" s="11">
+      <c r="L5" s="19">
         <v>3</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:19">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="L6" s="11">
+      <c r="J6" s="37"/>
+      <c r="L6" s="19">
         <v>3</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:20">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="L7" s="11">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="L7" s="19">
         <v>2</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="33"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:20">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="L8" s="11">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="L8" s="19">
         <v>3</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="3:20">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="L9" s="11">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="L9" s="19">
         <v>3</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="3:20">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="3:20">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="3:15">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="3:19">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="19" t="s">
         <v>57</v>
       </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="3:19">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="11" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="34">
         <v>4</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="34">
         <v>3</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26">
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34">
         <v>5</v>
       </c>
-      <c r="R14" s="26"/>
+      <c r="R14" s="34"/>
       <c r="S14" s="2"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="3:19">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="34">
         <v>3</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="34">
         <v>4</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
         <v>5</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26">
+      <c r="H15" s="34"/>
+      <c r="I15" s="34">
         <v>1</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="11" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="34">
         <v>5</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26">
+      <c r="N15" s="34"/>
+      <c r="O15" s="34">
         <v>4</v>
       </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34">
         <v>4</v>
       </c>
-      <c r="R15" s="26"/>
+      <c r="R15" s="34"/>
       <c r="S15" s="2"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="3:19">
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="34">
         <v>2</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="34">
         <v>3</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="34">
         <v>3</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="11" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="34">
         <v>4</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26">
+      <c r="N16" s="34"/>
+      <c r="O16" s="34">
         <v>5</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="34">
         <v>3</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="34">
         <v>4</v>
       </c>
-      <c r="R16" s="26"/>
+      <c r="R16" s="34"/>
       <c r="S16" s="2"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="3:19">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="19">
         <v>3</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19">
         <v>3</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="11" t="s">
+      <c r="I17" s="19"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26">
+      <c r="M17" s="34"/>
+      <c r="N17" s="34">
         <v>3</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26">
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34">
         <v>5</v>
       </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="3:19">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <v>3</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19">
         <v>3</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="11" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26">
+      <c r="M18" s="34"/>
+      <c r="N18" s="34">
         <v>4</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26">
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34">
         <v>4</v>
       </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:19">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19">
         <v>3</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19">
         <v>4</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="11" t="s">
+      <c r="I19" s="19"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26">
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34">
         <v>2</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="34">
         <v>4</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26">
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34">
         <v>5</v>
       </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="3:19">
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="20">
         <f t="shared" ref="D20:I20" si="0">COUNT(D15:D19)</f>
         <v>4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="20"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="11">
+      <c r="M20" s="19">
         <f t="shared" ref="M20:R20" si="1">COUNT(M14:M19)</f>
         <v>3</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S20" s="2"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="3:3">
-      <c r="C21" s="27"/>
+      <c r="C21" s="35"/>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="3:3">
-      <c r="C22" s="27"/>
+      <c r="C22" s="35"/>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="3:3">
-      <c r="C23" s="27"/>
+      <c r="C23" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3675,214 +3702,214 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="19">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="11">
+      <c r="B7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="19">
         <f>ABS(B7-$C$6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="19">
         <f>ABS(B7-$D$6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="19">
         <f>ABS(B7-$E$6)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="19" t="str">
         <f>IF(MATCH(MIN(C7:E7),C7:E7)=1,$C$5,IF(MATCH(MIN(C7:E7),C7:E7)=2,$D$5,$E$5))</f>
         <v>z1</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="11">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="19">
         <f t="shared" ref="C8:C15" si="0">ABS(B8-$C$6)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="19">
         <f t="shared" ref="D8:D15" si="1">ABS(B8-$D$6)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="19">
         <f t="shared" ref="E8:E15" si="2">ABS(B8-$E$6)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="19" t="str">
         <f t="shared" ref="F8" si="3">IF(MATCH(MIN(C8:E8),C8:E8)=1,$C$5,IF(MATCH(MIN(C8:E8),C8:E8)=2,$D$5,$E$5))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="11">
+      <c r="B9" s="19">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="11">
+      <c r="B10" s="19">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="11">
+      <c r="B11" s="19">
         <v>26</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="19">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="11">
+      <c r="B12" s="19">
         <v>32</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="19">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="11">
+      <c r="B13" s="19">
         <v>16</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="19">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="11">
+      <c r="B14" s="19">
         <v>21</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="19">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="19">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="11">
+      <c r="B15" s="19">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="31" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3893,426 +3920,426 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="H21" s="11" t="s">
+      <c r="F21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="19">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="19">
         <v>18.28</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="19">
         <v>1</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="19">
         <v>5</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="19">
         <v>21.8</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="11">
+      <c r="B23" s="19">
         <v>1</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="32">
         <f>ABS(B23-$C$22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="32">
         <f>ABS(B23-$D$22)</f>
         <v>4</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="33">
         <f>ABS(B23-$E$22)</f>
         <v>17.28</v>
       </c>
-      <c r="F23" s="11" t="str">
+      <c r="F23" s="19" t="str">
         <f>IF(MATCH(MIN(C23:E23),C23:E23)=1,$C$21,IF(MATCH(MIN(C23:E23),C23:E23)=2,$D$21,$E$21))</f>
         <v>z1</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="19">
         <v>1</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="32">
         <f>ABS(H23-$I$22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="32">
         <f t="shared" ref="J23:J31" si="4">ABS(H23-$D$22)</f>
         <v>4</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="33">
         <f>ABS(H23-$K$22)</f>
         <v>20.8</v>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="19" t="str">
         <f>IF(MATCH(MIN(I23:K23),I23:K23)=1,$C$21,IF(MATCH(MIN(I23:K23),I23:K23)=2,$D$21,$E$21))</f>
         <v>z1</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="11">
+      <c r="B24" s="19">
         <v>5</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="32">
         <f t="shared" ref="C24:C31" si="5">ABS(B24-$C$22)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="32">
         <f t="shared" ref="D24:D31" si="6">ABS(B24-$D$22)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="33">
         <f t="shared" ref="E24:E31" si="7">ABS(B24-$E$22)</f>
         <v>13.28</v>
       </c>
-      <c r="F24" s="11" t="str">
+      <c r="F24" s="19" t="str">
         <f>IF(MATCH(MIN(C24:E24),C24:E24)=1,$C$21,IF(MATCH(MIN(C24:E24),C24:E24)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="19">
         <v>5</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="32">
         <f t="shared" ref="I24:I31" si="8">ABS(H24-$I$22)</f>
         <v>4</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="33">
         <f t="shared" ref="K24:K31" si="9">ABS(H24-$K$22)</f>
         <v>16.8</v>
       </c>
-      <c r="L24" s="11" t="str">
+      <c r="L24" s="19" t="str">
         <f t="shared" ref="L23:L25" si="10">IF(MATCH(MIN(I24:K24),I24:K24)=1,$C$21,IF(MATCH(MIN(I24:K24),I24:K24)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="11">
+      <c r="B25" s="19">
         <v>10</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="32">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="32">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="33">
         <f t="shared" si="7"/>
         <v>8.28</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="19" t="str">
         <f>IF(MATCH(MIN(C25:E25),C25:E25)=1,$C$21,IF(MATCH(MIN(C25:E25),C25:E25)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="19">
         <v>10</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="32">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="33">
         <f t="shared" si="9"/>
         <v>11.8</v>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="19" t="str">
         <f t="shared" si="10"/>
         <v>z2</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="11">
+      <c r="B26" s="19">
         <v>9</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="32">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="32">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="33">
         <f t="shared" si="7"/>
         <v>9.28</v>
       </c>
-      <c r="F26" s="11" t="str">
+      <c r="F26" s="19" t="str">
         <f t="shared" ref="F26:F31" si="11">IF(MATCH(MIN(C26:E26),C26:E26,0)=1,$C$21,IF(MATCH(MIN(C26:E26),C26:E26,0)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="19">
         <v>9</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="32">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="32">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="33">
         <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
-      <c r="L26" s="11" t="str">
+      <c r="L26" s="19" t="str">
         <f t="shared" ref="L26:L31" si="12">IF(MATCH(MIN(I26:K26),I26:K26,0)=1,$C$21,IF(MATCH(MIN(I26:K26),I26:K26,0)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="11">
+      <c r="B27" s="19">
         <v>26</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="32">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="32">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="33">
         <f t="shared" si="7"/>
         <v>7.72</v>
       </c>
-      <c r="F27" s="26" t="str">
+      <c r="F27" s="34" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="19">
         <v>26</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="32">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="32">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="33">
         <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
-      <c r="L27" s="26" t="str">
+      <c r="L27" s="34" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="11">
+      <c r="B28" s="19">
         <v>32</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="32">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="32">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="33">
         <f t="shared" si="7"/>
         <v>13.72</v>
       </c>
-      <c r="F28" s="26" t="str">
+      <c r="F28" s="34" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="19">
         <v>32</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="32">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="32">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="33">
         <f t="shared" si="9"/>
         <v>10.2</v>
       </c>
-      <c r="L28" s="26" t="str">
+      <c r="L28" s="34" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="11">
+      <c r="B29" s="19">
         <v>16</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="32">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="32">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="33">
         <f t="shared" si="7"/>
         <v>2.28</v>
       </c>
-      <c r="F29" s="26" t="str">
+      <c r="F29" s="34" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="19">
         <v>16</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="32">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="32">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="33">
         <f t="shared" si="9"/>
         <v>5.8</v>
       </c>
-      <c r="L29" s="26" t="str">
+      <c r="L29" s="34" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="11">
+      <c r="B30" s="19">
         <v>21</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="32">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="32">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="33">
         <f t="shared" si="7"/>
         <v>2.72</v>
       </c>
-      <c r="F30" s="26" t="str">
+      <c r="F30" s="34" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="19">
         <v>21</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="32">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="32">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="33">
         <f t="shared" si="9"/>
         <v>0.800000000000001</v>
       </c>
-      <c r="L30" s="26" t="str">
+      <c r="L30" s="34" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="11">
+      <c r="B31" s="19">
         <v>14</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="32">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="32">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="33">
         <f t="shared" si="7"/>
         <v>4.28</v>
       </c>
-      <c r="F31" s="26" t="str">
+      <c r="F31" s="34" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="19">
         <v>14</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="32">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="32">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="33">
         <f t="shared" si="9"/>
         <v>7.8</v>
       </c>
-      <c r="L31" s="26" t="str">
+      <c r="L31" s="34" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
@@ -4397,127 +4424,127 @@
   <sheetData>
     <row r="14" ht="15.15"/>
     <row r="15" ht="20" customHeight="1" spans="2:8">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="8:8">
-      <c r="H16" s="10"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:8">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="G17" s="12" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="8:8">
-      <c r="H18" s="10"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="8:8">
-      <c r="H19" s="10"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="8:8">
-      <c r="H20" s="10"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:8">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:8">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="8:8">
-      <c r="H23" s="10"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="8:8">
-      <c r="H24" s="10"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="8:8">
-      <c r="H25" s="10"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:8">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:8">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:8">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:8">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:8">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="19"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:8">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4538,15 +4565,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:O108"/>
+  <dimension ref="C1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134:F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="9.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="10" width="8.88888888888889" style="1"/>
+    <col min="11" max="11" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
@@ -4560,7 +4594,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4570,7 +4604,7 @@
       </c>
     </row>
     <row r="6" ht="15" spans="12:12">
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4584,70 +4618,42 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" ht="15"/>
     <row r="25" ht="15" spans="13:13">
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+    <row r="27" ht="15" spans="13:13">
+      <c r="M27" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="13:13">
-      <c r="M27" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="28" ht="15" spans="13:13">
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="7" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="15:15">
       <c r="O30"/>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" ht="15"/>
-    <row r="44" ht="15"/>
     <row r="56" spans="12:12">
       <c r="L56" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="12:12">
       <c r="L57" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="12:12">
       <c r="L59" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="12:12">
       <c r="L63" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="13:13">
@@ -4655,22 +4661,22 @@
     </row>
     <row r="70" spans="12:12">
       <c r="L70" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="12:12">
       <c r="L72" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="12:12">
       <c r="L75" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="12:12">
       <c r="L79" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="7:7">
@@ -4678,53 +4684,53 @@
     </row>
     <row r="81" spans="12:12">
       <c r="L81" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="12:12">
       <c r="L85" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="6:12">
       <c r="F87"/>
       <c r="L87" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="12:12">
       <c r="L90" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="12:12">
       <c r="L92" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="12:12">
       <c r="L93" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="12:12">
       <c r="L94" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="12:12">
       <c r="L96" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="12:12">
       <c r="L98" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="12:12">
       <c r="L101" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="5:5">
@@ -4732,28 +4738,426 @@
     </row>
     <row r="103" spans="12:12">
       <c r="L103" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="12:12">
-      <c r="L104" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="12:12">
-      <c r="L105" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="12:12">
-      <c r="L106" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108"/>
     </row>
+    <row r="132" ht="25" customHeight="1" spans="4:4">
+      <c r="D132" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" ht="25" customHeight="1"/>
+    <row r="134" ht="25" customHeight="1" spans="4:10">
+      <c r="D134" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="H134" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" ht="25" customHeight="1" spans="4:10">
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" ht="25" customHeight="1" spans="4:10">
+      <c r="D136" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" ht="25" customHeight="1" spans="4:10">
+      <c r="D137" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" ht="25" customHeight="1"/>
+    <row r="139" ht="25" customHeight="1"/>
+    <row r="140" ht="25" customHeight="1" spans="4:6">
+      <c r="D140" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" ht="25" customHeight="1" spans="4:6">
+      <c r="D141" s="10"/>
+      <c r="E141" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" ht="25" customHeight="1" spans="4:15">
+      <c r="D142" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K142" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" ht="25" customHeight="1" spans="4:6">
+      <c r="D143" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" ht="25" customHeight="1"/>
+    <row r="145" ht="25" customHeight="1" spans="4:4">
+      <c r="D145" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" ht="25" customHeight="1" spans="4:4">
+      <c r="D146" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" ht="25" customHeight="1"/>
+    <row r="148" ht="25" customHeight="1"/>
+    <row r="149" ht="25" customHeight="1" spans="4:6">
+      <c r="D149" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" ht="25" customHeight="1" spans="4:14">
+      <c r="D150" s="10"/>
+      <c r="E150" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K150" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" ht="25" customHeight="1" spans="4:6">
+      <c r="D151" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" ht="25" customHeight="1" spans="4:6">
+      <c r="D152" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="153" ht="25" customHeight="1"/>
+    <row r="154" ht="25" customHeight="1"/>
+    <row r="155" ht="25" customHeight="1" spans="4:6">
+      <c r="D155" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" ht="25" customHeight="1" spans="4:14">
+      <c r="D156" s="10"/>
+      <c r="E156" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K156" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" ht="25" customHeight="1" spans="4:6">
+      <c r="D157" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" ht="25" customHeight="1" spans="4:6">
+      <c r="D158" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" ht="25" customHeight="1"/>
+    <row r="160" ht="25" customHeight="1" spans="4:7">
+      <c r="D160" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" ht="25" customHeight="1"/>
+    <row r="162" ht="25" customHeight="1" spans="4:6">
+      <c r="D162" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F162" s="10"/>
+    </row>
+    <row r="163" ht="25" customHeight="1" spans="4:13">
+      <c r="D163" s="10"/>
+      <c r="E163" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L163" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" ht="25" customHeight="1" spans="4:6">
+      <c r="D164" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" ht="25" customHeight="1" spans="4:6">
+      <c r="D165" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" ht="25" customHeight="1"/>
+    <row r="167" ht="25" customHeight="1"/>
+    <row r="168" ht="25" customHeight="1" spans="4:6">
+      <c r="D168" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F168" s="10"/>
+    </row>
+    <row r="169" ht="25" customHeight="1" spans="4:6">
+      <c r="D169" s="10"/>
+      <c r="E169" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" ht="25" customHeight="1" spans="4:12">
+      <c r="D170" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K170" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L170" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" ht="25" customHeight="1" spans="4:6">
+      <c r="D171" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" ht="25" customHeight="1"/>
+    <row r="173" ht="25" customHeight="1"/>
+    <row r="174" ht="25" customHeight="1" spans="4:4">
+      <c r="D174" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" ht="25" customHeight="1"/>
+    <row r="176" ht="25" customHeight="1"/>
+    <row r="177" ht="25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E168:F168"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4771,8 +5175,8 @@
                 <xdr:rowOff>160020</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>325120</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>866140</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>33020</xdr:rowOff>
               </to>
@@ -4797,7 +5201,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>561340</xdr:colOff>
+                <xdr:colOff>492760</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>71120</xdr:rowOff>
               </to>
@@ -4807,81 +5211,6 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject shapeId="4100" progId="Equation.KSEE3" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="4101" progId="Equation.KSEE3" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>139700</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>129540</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="4101" progId="Equation.KSEE3" r:id="rId7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="4102" progId="Equation.KSEE3" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>330200</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="4102" progId="Equation.KSEE3" r:id="rId9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="4103" progId="Equation.KSEE3" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>386080</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="4103" progId="Equation.KSEE3" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4904,7 +5233,7 @@
   <sheetData>
     <row r="8" ht="20" customHeight="1" spans="4:12">
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4912,15 +5241,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="L8" s="1" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="4:9">
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4981,78 +5310,78 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="1" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="1" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="1" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5084,51 +5413,51 @@
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="H5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="M5" s="2">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="P5" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>220</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
@@ -5138,147 +5467,147 @@
       </c>
       <c r="D6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="H6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="M6" s="2">
         <f ca="1" t="shared" si="0"/>
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="O6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="P6" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="I7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M7" s="2">
         <f ca="1" t="shared" si="0"/>
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="N7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="O7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="I8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="J8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="M8" s="2">
         <f ca="1" t="shared" si="0"/>
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="N8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="O8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="P8" s="2">
         <f ca="1">INT(RAND()*255)</f>
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="3:16">

--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -774,11 +774,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -848,15 +848,52 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,61 +907,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,10 +924,41 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,17 +977,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,13 +986,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,19 +1042,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,19 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1108,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1156,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,85 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,15 +1368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1388,30 +1379,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,11 +1400,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,10 +1458,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,130 +1473,130 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8097,7 +8097,7 @@
   <sheetPr/>
   <dimension ref="B6:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -8235,7 +8235,7 @@
   <sheetPr/>
   <dimension ref="C1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -8823,7 +8823,7 @@
   <sheetPr/>
   <dimension ref="B5:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -9549,7 +9549,7 @@
   <sheetPr/>
   <dimension ref="B14:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -9703,8 +9703,8 @@
   <sheetPr/>
   <dimension ref="C1:O177"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134:F137"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB141" sqref="AB141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10358,7 +10358,7 @@
   <sheetPr/>
   <dimension ref="B8:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
@@ -12880,19 +12880,19 @@
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="D5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="H5" s="11">
         <f ca="1">INT(RAND()*255)</f>
@@ -12900,181 +12900,181 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="M5" s="11">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="N5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="O5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
       <c r="C6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="H6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="J6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="K6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M6" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="N6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="O6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="P6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>129</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="J7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="K7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M7" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="N7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="P7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>93</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="J8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="K8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="M8" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="N8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="O8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="P8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="3:16">

--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -774,11 +774,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -849,6 +849,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -863,29 +871,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,11 +892,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,27 +907,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,11 +938,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -971,7 +971,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,7 +985,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,7 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1066,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,67 +1144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,31 +1174,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,31 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +1353,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1364,21 +1373,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,9 +1394,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,17 +1422,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1458,10 +1458,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1470,19 +1470,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1491,10 +1491,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,100 +1509,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4499,13 +4499,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>53340</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>14605</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>492760</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>71120</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>392430</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -4520,8 +4520,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1272540" y="3314700"/>
-              <a:ext cx="1727200" cy="787400"/>
+              <a:off x="1272540" y="3314065"/>
+              <a:ext cx="2907030" cy="1320800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4869,6 +4869,438 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1291590" cy="400050"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3886835" y="5121910"/>
+              <a:ext cx="1291590" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑀𝐴𝐸</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                          <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:limLoc m:val="undOvr"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            </a:rPr>
+                            <m:t>=</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            </a:rPr>
+                            <m:t>1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                              <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:d>
+                            <m:dPr>
+                              <m:begChr m:val="|"/>
+                              <m:endChr m:val="|"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:sPre>
+                                <m:sPrePr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                      <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sPrePr>
+                                <m:sub/>
+                                <m:sup/>
+                                <m:e/>
+                              </m:sPre>
+                            </m:e>
+                          </m:d>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den/>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                      <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="文本框 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3886835" y="5121910"/>
+              <a:ext cx="1291590" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀𝐴𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>(_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>608965</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>60325</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>414655</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4101" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1218565" y="4647565"/>
+              <a:ext cx="1703070" cy="753110"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>217170</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>17780</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4103" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4899660" y="2373630"/>
+              <a:ext cx="2045970" cy="760730"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -8235,7 +8667,7 @@
   <sheetPr/>
   <dimension ref="C1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -9703,8 +10135,8 @@
   <sheetPr/>
   <dimension ref="C1:O177"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB141" sqref="AB141"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="O164" sqref="O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10333,13 +10765,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>53340</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:rowOff>14605</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>492760</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>71120</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>392430</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -10347,6 +10779,56 @@
       </mc:Choice>
       <mc:Fallback>
         <oleObject shapeId="4100" progId="Equation.KSEE3" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="4101" progId="Equation.KSEE3" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>608965</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>60325</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>414655</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="4101" progId="Equation.KSEE3" r:id="rId7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="4103" progId="Equation.KSEE3" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>217170</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>17780</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="4103" progId="Equation.KSEE3" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -12880,201 +13362,201 @@
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="D5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="H5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="M5" s="11">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="N5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="O5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
       <c r="C6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="D6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="H6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="J6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="M6" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="N6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="O6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>207</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="H7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="J7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="K7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="M7" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="N7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="P7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>234</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="J8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="K8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="M8" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="N8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="O8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>120</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="3:16">

--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="194">
   <si>
     <t>网页</t>
   </si>
@@ -124,13 +124,25 @@
     <t>用户新行为一定导致推荐结果变化</t>
   </si>
   <si>
-    <t>冷启动</t>
-  </si>
-  <si>
-    <t>新用户无法立即提供个性化推荐</t>
-  </si>
-  <si>
-    <t>新用户对一个物品产生行为，就能推荐相关物品，但是对于新物品，需要提供其相关性数据</t>
+    <t>相似性矩阵时间</t>
+  </si>
+  <si>
+    <t>欧氏距离</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>切比雪夫</t>
+  </si>
+  <si>
+    <t>闵可夫斯基</t>
+  </si>
+  <si>
+    <t>余弦相似度</t>
+  </si>
+  <si>
+    <t>杰卡德</t>
   </si>
   <si>
     <t>推荐理由</t>
@@ -151,19 +163,16 @@
     <t>对物品相关性依赖高</t>
   </si>
   <si>
+    <t>训练集数量</t>
+  </si>
+  <si>
+    <t>测试集数量</t>
+  </si>
+  <si>
     <t>片库数据库</t>
   </si>
   <si>
     <t>相似度是比较两个向量（事物 ）的相似程度，通过计算向量之间的夹角距离，距离小，相似度大，距离大，则相似性小。</t>
-  </si>
-  <si>
-    <t>欧氏距离</t>
-  </si>
-  <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
-    <t>闵可夫斯基</t>
   </si>
   <si>
     <t>评分</t>
@@ -777,8 +786,8 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -847,17 +856,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,13 +865,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +879,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,9 +892,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +909,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,9 +939,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,28 +994,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1063,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,19 +1183,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,37 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,85 +1225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,11 +1362,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,6 +1399,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,26 +1435,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,26 +1451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,10 +1467,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1470,137 +1479,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1796,20 +1805,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1903,7 +1915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13601700" y="4206240"/>
+          <a:off x="15643860" y="4206240"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4934,14 +4946,7 @@
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
                       <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
                     </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
-                      <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
-                    </a:rPr>
-                    <m:t>= </m:t>
+                    <m:t> = </m:t>
                   </m:r>
                   <m:f>
                     <m:fPr>
@@ -5097,14 +5102,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
                   <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
                 </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
-                  <a:cs typeface="Cambria Math" panose="02040503050406030204" charset="0"/>
-                </a:rPr>
-                <a:t>= </a:t>
+                <a:t> = </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -5772,10 +5770,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:Q43"/>
+  <dimension ref="B8:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5783,9 +5781,9 @@
     <col min="1" max="1" width="8.88888888888889" style="10"/>
     <col min="2" max="2" width="13.4444444444444" style="10" customWidth="1"/>
     <col min="3" max="4" width="40.7777777777778" style="10" customWidth="1"/>
-    <col min="5" max="11" width="8.88888888888889" style="10"/>
-    <col min="12" max="12" width="14.4444444444444" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.88888888888889" style="10"/>
+    <col min="5" max="8" width="8.88888888888889" style="10"/>
+    <col min="9" max="15" width="14.7777777777778" style="65" customWidth="1"/>
+    <col min="16" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:10">
@@ -5794,7 +5792,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="65" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5825,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="25"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="65" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5866,10 +5864,10 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="65" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5889,19 +5887,19 @@
       </c>
     </row>
     <row r="19" spans="10:17">
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="24">
         <v>0</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="L19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="24">
         <v>5</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="65" t="s">
         <v>12</v>
       </c>
       <c r="P19" s="10">
@@ -5917,19 +5915,19 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="24">
         <v>1</v>
       </c>
-      <c r="L20" s="67" t="s">
+      <c r="L20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="68" t="s">
+      <c r="M20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="65" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="10">
@@ -5951,16 +5949,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="24">
         <v>3</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="24">
         <v>0.1</v>
       </c>
     </row>
@@ -5978,8 +5976,8 @@
         <v>1</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="68"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="24" t="s">
@@ -5995,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="M23" s="69"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="24" t="s">
@@ -6009,7 +6007,7 @@
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
-      <c r="O24"/>
+      <c r="O24" s="68"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="25"/>
@@ -6025,90 +6023,145 @@
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" ht="40.05" customHeight="1"/>
-    <row r="28" ht="40.05" customHeight="1"/>
-    <row r="29" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B29" s="65" t="s">
+    <row r="29" s="64" customFormat="1" spans="2:15">
+      <c r="B29" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="66" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B30" s="65" t="s">
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" s="64" customFormat="1" spans="2:15">
+      <c r="B30" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="67" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B31" s="65" t="s">
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+    </row>
+    <row r="31" s="64" customFormat="1" spans="2:15">
+      <c r="B31" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B32" s="65" t="s">
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+    </row>
+    <row r="32" s="64" customFormat="1" spans="2:15">
+      <c r="B32" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B33" s="65" t="s">
+      <c r="I32" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="J32" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="K32" s="70" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B34" s="65" t="s">
+      <c r="L32" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="M32" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="N32" s="70" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" s="64" customFormat="1" ht="40.05" customHeight="1" spans="2:4">
-      <c r="B35" s="65" t="s">
+      <c r="O32" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="66" t="s">
+    </row>
+    <row r="33" s="64" customFormat="1" spans="2:15">
+      <c r="B33" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="C33" s="67" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" ht="40.05" customHeight="1"/>
-    <row r="37" ht="40.05" customHeight="1"/>
-    <row r="43" spans="3:3">
-      <c r="C43" s="10" t="s">
+      <c r="D33" s="67" t="s">
         <v>42</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+    </row>
+    <row r="34" s="64" customFormat="1" spans="2:15">
+      <c r="B34" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6452,7 +6505,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -6530,7 +6583,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -6756,7 +6809,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -8540,27 +8593,27 @@
   <sheetData>
     <row r="6" ht="15.6" spans="3:3">
       <c r="C6" s="61" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="12:12">
       <c r="L14" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="16:16">
       <c r="P17" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="20:20">
       <c r="T20" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="4:9">
       <c r="D21" s="62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>1</v>
@@ -8572,15 +8625,15 @@
         <v>3</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:9">
       <c r="D22" s="62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" s="35">
         <v>8</v>
@@ -8600,7 +8653,7 @@
     </row>
     <row r="23" spans="4:9">
       <c r="D23" s="62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" s="35">
         <v>10</v>
@@ -8620,21 +8673,21 @@
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="24"/>
       <c r="C54" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55" s="24">
         <v>2</v>
@@ -8645,7 +8698,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C56" s="24">
         <v>4</v>
@@ -8705,22 +8758,22 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="12:18">
@@ -8728,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O4" s="24">
         <f>1/(L4*N2)</f>
@@ -8752,7 +8805,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
@@ -8762,32 +8815,32 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:19">
       <c r="C6" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" s="51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6" s="56"/>
       <c r="L6" s="24">
         <v>3</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -8798,7 +8851,7 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:20">
       <c r="C7" s="51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -8811,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -8823,7 +8876,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:20">
       <c r="C8" s="51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -8836,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -8848,7 +8901,7 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="3:20">
       <c r="C9" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -8861,7 +8914,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -8873,7 +8926,7 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="3:20">
       <c r="C10" s="51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -8893,7 +8946,7 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="3:20">
       <c r="C11" s="51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -8913,7 +8966,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="3:15">
       <c r="C12" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -8940,49 +8993,49 @@
       <c r="K13" s="55"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S13" s="11"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="3:19">
       <c r="C14" s="51"/>
       <c r="D14" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="55"/>
       <c r="L14" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M14" s="35">
         <v>4</v>
@@ -9000,7 +9053,7 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="3:19">
       <c r="C15" s="51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="35">
         <v>3</v>
@@ -9019,7 +9072,7 @@
       <c r="J15" s="57"/>
       <c r="K15" s="55"/>
       <c r="L15" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M15" s="35">
         <v>5</v>
@@ -9037,7 +9090,7 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="3:19">
       <c r="C16" s="51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="35">
         <v>2</v>
@@ -9060,7 +9113,7 @@
       <c r="J16" s="57"/>
       <c r="K16" s="55"/>
       <c r="L16" s="24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M16" s="35">
         <v>4</v>
@@ -9080,7 +9133,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="3:19">
       <c r="C17" s="51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" s="24">
         <v>3</v>
@@ -9097,7 +9150,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
       <c r="L17" s="24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M17" s="35"/>
       <c r="N17" s="35">
@@ -9113,7 +9166,7 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="3:19">
       <c r="C18" s="51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24">
@@ -9130,7 +9183,7 @@
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
       <c r="L18" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M18" s="35"/>
       <c r="N18" s="35">
@@ -9146,7 +9199,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:19">
       <c r="C19" s="51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19" s="24">
         <v>2</v>
@@ -9163,7 +9216,7 @@
       <c r="J19" s="55"/>
       <c r="K19" s="58"/>
       <c r="L19" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -9181,7 +9234,7 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="3:19">
       <c r="C20" s="54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" ref="D20:I20" si="0">COUNT(D15:D19)</f>
@@ -9271,22 +9324,22 @@
   <sheetData>
     <row r="5" spans="2:6">
       <c r="B5" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="24">
         <v>1</v>
@@ -9358,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -9378,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -9398,7 +9451,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -9418,7 +9471,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -9438,7 +9491,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -9458,7 +9511,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -9478,7 +9531,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -9489,7 +9542,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -9498,35 +9551,35 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F21" s="24"/>
       <c r="H21" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L21" s="24"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C22" s="24">
         <v>1</v>
@@ -9539,7 +9592,7 @@
       </c>
       <c r="F22" s="24"/>
       <c r="H22" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I22" s="24">
         <v>1</v>
@@ -10005,13 +10058,13 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:8">
       <c r="B17" s="24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H17" s="42"/>
     </row>
@@ -10026,11 +10079,11 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:8">
       <c r="B21" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -10065,16 +10118,16 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:8">
       <c r="B27" s="44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="45"/>
       <c r="G27" s="46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H27" s="47"/>
     </row>
@@ -10135,7 +10188,7 @@
   <sheetPr/>
   <dimension ref="C1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A151" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="O164" sqref="O164"/>
     </sheetView>
   </sheetViews>
@@ -10153,52 +10206,52 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="15" spans="12:12">
       <c r="L6" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" ht="15" spans="13:13">
       <c r="M25" s="33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" ht="15" spans="13:13">
       <c r="M27" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" ht="15" spans="13:13">
       <c r="M28" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="15:15">
@@ -10206,22 +10259,22 @@
     </row>
     <row r="56" spans="12:12">
       <c r="L56" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="12:12">
       <c r="L57" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="12:12">
       <c r="L59" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="12:12">
       <c r="L63" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="13:13">
@@ -10229,22 +10282,22 @@
     </row>
     <row r="70" spans="12:12">
       <c r="L70" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="12:12">
       <c r="L72" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="12:12">
       <c r="L75" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="12:12">
       <c r="L79" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="7:7">
@@ -10252,53 +10305,53 @@
     </row>
     <row r="81" spans="12:12">
       <c r="L81" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="12:12">
       <c r="L85" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="6:12">
       <c r="F87"/>
       <c r="L87" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="12:12">
       <c r="L90" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="12:12">
       <c r="L92" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="12:12">
       <c r="L93" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="12:12">
       <c r="L94" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="12:12">
       <c r="L96" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="12:12">
       <c r="L98" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="12:12">
       <c r="L101" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="5:5">
@@ -10306,7 +10359,7 @@
     </row>
     <row r="103" spans="12:12">
       <c r="L103" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="4:4">
@@ -10314,404 +10367,404 @@
     </row>
     <row r="132" ht="25" customHeight="1" spans="4:4">
       <c r="D132" s="34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1"/>
     <row r="134" ht="25" customHeight="1" spans="4:10">
       <c r="D134" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F134" s="24"/>
       <c r="H134" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" ht="25" customHeight="1" spans="4:10">
       <c r="D135" s="24"/>
       <c r="E135" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F135" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" ht="25" customHeight="1" spans="4:10">
       <c r="D136" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E136" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H136" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F136" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="I136" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" ht="25" customHeight="1" spans="4:10">
       <c r="D137" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F137" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" ht="25" customHeight="1"/>
     <row r="139" ht="25" customHeight="1"/>
     <row r="140" ht="25" customHeight="1" spans="4:6">
       <c r="D140" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F140" s="24"/>
     </row>
     <row r="141" ht="25" customHeight="1" spans="4:6">
       <c r="D141" s="24"/>
       <c r="E141" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F141" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1" spans="4:15">
       <c r="D142" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I142" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K142" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O142" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" ht="25" customHeight="1" spans="4:6">
       <c r="D143" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" ht="25" customHeight="1"/>
     <row r="145" ht="25" customHeight="1" spans="4:4">
       <c r="D145" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" ht="25" customHeight="1" spans="4:4">
       <c r="D146" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" ht="25" customHeight="1"/>
     <row r="148" ht="25" customHeight="1"/>
     <row r="149" ht="25" customHeight="1" spans="4:6">
       <c r="D149" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F149" s="24"/>
     </row>
     <row r="150" ht="25" customHeight="1" spans="4:14">
       <c r="D150" s="24"/>
       <c r="E150" s="37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F150" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I150" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K150" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" ht="25" customHeight="1" spans="4:6">
       <c r="D151" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E151" s="37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F151" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1" spans="4:6">
       <c r="D152" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E152" s="37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1"/>
     <row r="154" ht="25" customHeight="1"/>
     <row r="155" ht="25" customHeight="1" spans="4:6">
       <c r="D155" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F155" s="24"/>
     </row>
     <row r="156" ht="25" customHeight="1" spans="4:14">
       <c r="D156" s="24"/>
       <c r="E156" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I156" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K156" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" ht="25" customHeight="1" spans="4:6">
       <c r="D157" s="37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F157" s="37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1" spans="4:6">
       <c r="D158" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" ht="25" customHeight="1"/>
     <row r="160" ht="25" customHeight="1" spans="4:7">
       <c r="D160" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F160" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" ht="25" customHeight="1"/>
     <row r="162" ht="25" customHeight="1" spans="4:6">
       <c r="D162" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F162" s="24"/>
     </row>
     <row r="163" ht="25" customHeight="1" spans="4:13">
       <c r="D163" s="24"/>
       <c r="E163" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H163" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I163" s="35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J163" s="35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K163" s="35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L163" s="35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M163" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" ht="25" customHeight="1" spans="4:6">
       <c r="D164" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1" spans="4:6">
       <c r="D165" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" ht="25" customHeight="1"/>
     <row r="167" ht="25" customHeight="1"/>
     <row r="168" ht="25" customHeight="1" spans="4:6">
       <c r="D168" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F168" s="24"/>
     </row>
     <row r="169" ht="25" customHeight="1" spans="4:6">
       <c r="D169" s="24"/>
       <c r="E169" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" ht="25" customHeight="1" spans="4:12">
       <c r="D170" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F170" s="37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I170" s="36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J170" s="36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K170" s="36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L170" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" ht="25" customHeight="1" spans="4:6">
       <c r="D171" s="24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" ht="25" customHeight="1"/>
     <row r="173" ht="25" customHeight="1"/>
     <row r="174" ht="25" customHeight="1" spans="4:4">
       <c r="D174" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" ht="25" customHeight="1"/>
@@ -10855,7 +10908,7 @@
   <sheetData>
     <row r="8" ht="20" customHeight="1" spans="4:12">
       <c r="D8" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -10863,15 +10916,15 @@
       <c r="H8" s="14"/>
       <c r="I8" s="19"/>
       <c r="L8" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="4:9">
       <c r="D9" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -10880,10 +10933,10 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="4:9">
       <c r="D10" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -10892,13 +10945,13 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="4:9">
       <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -10906,23 +10959,23 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="4:9">
       <c r="D12" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="4:9">
       <c r="D13" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -10932,42 +10985,42 @@
     </row>
     <row r="21" spans="4:21">
       <c r="D21" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="R21" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="R21" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="S21" s="20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="4:21">
       <c r="D22" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="21">
@@ -10993,7 +11046,7 @@
     </row>
     <row r="23" spans="4:21">
       <c r="D23" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="21">
@@ -11019,7 +11072,7 @@
     </row>
     <row r="24" spans="4:21">
       <c r="D24" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="21">
@@ -11045,7 +11098,7 @@
     </row>
     <row r="25" spans="4:21">
       <c r="D25" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="21">
@@ -11071,7 +11124,7 @@
     </row>
     <row r="26" spans="4:21">
       <c r="D26" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="21">
@@ -11097,7 +11150,7 @@
     </row>
     <row r="27" spans="4:21">
       <c r="D27" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="21">
@@ -11123,7 +11176,7 @@
     </row>
     <row r="28" spans="4:21">
       <c r="D28" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="21">
@@ -11149,7 +11202,7 @@
     </row>
     <row r="29" spans="4:21">
       <c r="D29" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="21">
@@ -11175,7 +11228,7 @@
     </row>
     <row r="30" spans="4:21">
       <c r="D30" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="21">
@@ -11201,7 +11254,7 @@
     </row>
     <row r="31" spans="4:21">
       <c r="D31" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="21">
@@ -11227,7 +11280,7 @@
     </row>
     <row r="32" spans="4:21">
       <c r="D32" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="21">
@@ -11253,7 +11306,7 @@
     </row>
     <row r="33" spans="4:21">
       <c r="D33" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="21">
@@ -11279,7 +11332,7 @@
     </row>
     <row r="34" spans="4:21">
       <c r="D34" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="21">
@@ -11315,10 +11368,10 @@
     </row>
     <row r="36" spans="9:25">
       <c r="I36" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
@@ -11327,10 +11380,10 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="R36" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S36" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
@@ -11634,7 +11687,7 @@
     </row>
     <row r="45" ht="15.6" spans="6:18">
       <c r="F45" s="17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I45" s="26">
         <v>0</v>
@@ -11740,7 +11793,7 @@
     </row>
     <row r="51" ht="15.6" spans="5:14">
       <c r="E51" s="18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="23">
@@ -11855,10 +11908,10 @@
     </row>
     <row r="59" ht="15.6" spans="5:14">
       <c r="E59" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I59" s="23"/>
       <c r="J59" s="23">
@@ -11957,7 +12010,7 @@
     </row>
     <row r="67" ht="15.6" spans="5:13">
       <c r="E67" s="18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="23">
@@ -12147,7 +12200,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="22"/>
@@ -12403,7 +12456,7 @@
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G85" s="28"/>
       <c r="H85" s="22"/>
@@ -13362,201 +13415,201 @@
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="D5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="H5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="K5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M5" s="11">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="O5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>75</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
       <c r="C6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="F6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="J6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="K6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="M6" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="N6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="O6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="P6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>59</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="H7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="K7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="M7" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="N7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="O7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>2</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="F8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="H8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="J8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="K8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="M8" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="N8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="O8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="P8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="3:16">

--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -785,9 +785,9 @@
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -857,7 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,14 +871,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -886,39 +878,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,20 +915,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -960,11 +923,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,7 +956,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1087,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,13 +1135,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,61 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,19 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,19 +1225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,6 +1363,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1379,26 +1394,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,6 +1421,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,27 +1451,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,10 +1467,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,7 +1479,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1488,128 +1488,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1805,9 +1805,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1818,9 +1815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5772,8 +5766,8 @@
   <sheetPr/>
   <dimension ref="B8:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5782,7 +5776,7 @@
     <col min="2" max="2" width="13.4444444444444" style="10" customWidth="1"/>
     <col min="3" max="4" width="40.7777777777778" style="10" customWidth="1"/>
     <col min="5" max="8" width="8.88888888888889" style="10"/>
-    <col min="9" max="15" width="14.7777777777778" style="65" customWidth="1"/>
+    <col min="9" max="15" width="14.7777777777778" style="25" customWidth="1"/>
     <col min="16" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
@@ -5792,7 +5786,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5823,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="25"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5864,10 +5858,10 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="25" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5899,7 +5893,7 @@
       <c r="M19" s="24">
         <v>5</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="25" t="s">
         <v>12</v>
       </c>
       <c r="P19" s="10">
@@ -5927,7 +5921,7 @@
       <c r="M20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="10">
@@ -5979,7 +5973,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:6">
       <c r="B23" s="24" t="s">
         <v>6</v>
       </c>
@@ -5993,7 +5987,6 @@
         <v>1</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="24" t="s">
@@ -6007,7 +6000,7 @@
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
-      <c r="O24" s="68"/>
+      <c r="O24" s="67"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="25"/>
@@ -6024,138 +6017,138 @@
       <c r="F26" s="25"/>
     </row>
     <row r="29" s="64" customFormat="1" spans="2:15">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
     </row>
     <row r="30" s="64" customFormat="1" spans="2:15">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
     </row>
     <row r="31" s="64" customFormat="1" spans="2:15">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
     </row>
     <row r="32" s="64" customFormat="1" spans="2:15">
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="K32" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="70" t="s">
+      <c r="M32" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="70" t="s">
+      <c r="N32" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="O32" s="70" t="s">
+      <c r="O32" s="65" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" s="64" customFormat="1" spans="2:15">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" s="64" customFormat="1" spans="2:15">
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I34" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
     </row>
     <row r="40" spans="9:9">
-      <c r="I40" s="65" t="s">
+      <c r="I40" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="9:9">
-      <c r="I41" s="65" t="s">
+      <c r="I41" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10893,8 +10886,8 @@
   <sheetPr/>
   <dimension ref="B8:AA117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -13415,165 +13408,165 @@
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="H5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="K5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M5" s="11">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="O5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
       <c r="C6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="D6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="F6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="H6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="J6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="K6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M6" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="N6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="P6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="J7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="K7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M7" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="N7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="O7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="P7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="D8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" s="11">
         <f ca="1">INT(RAND()*255)</f>
@@ -13581,35 +13574,35 @@
       </c>
       <c r="H8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="J8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="K8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="M8" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="N8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="O8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="3:16">

--- a/论文公式.xlsx
+++ b/论文公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="744" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="195">
   <si>
     <t>网页</t>
   </si>
@@ -772,6 +772,9 @@
     <t>jaccard_similarity</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -783,11 +786,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -805,13 +808,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -857,6 +860,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -864,14 +881,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,23 +895,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,6 +937,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -971,7 +989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,21 +998,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,150 +1054,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1207,7 +1066,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,13 +1162,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,6 +1365,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1373,6 +1385,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,15 +1448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1448,17 +1462,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1467,10 +1470,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,16 +1482,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1497,119 +1500,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,6 +1649,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1661,10 +1673,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,10 +1685,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,7 +1703,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5776,101 +5788,101 @@
     <col min="2" max="2" width="13.4444444444444" style="10" customWidth="1"/>
     <col min="3" max="4" width="40.7777777777778" style="10" customWidth="1"/>
     <col min="5" max="8" width="8.88888888888889" style="10"/>
-    <col min="9" max="15" width="14.7777777777778" style="25" customWidth="1"/>
+    <col min="9" max="15" width="14.7777777777778" style="28" customWidth="1"/>
     <col min="16" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:10">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="J8" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="38">
         <v>1</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="38">
         <v>1</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="38">
         <v>1</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="J10" s="25" t="s">
+      <c r="F10" s="28"/>
+      <c r="J10" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="27">
         <v>1</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="28"/>
       <c r="H11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="38">
         <v>1</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="38">
         <v>1</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="J13" s="25" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="J13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="18" spans="16:17">
       <c r="P18" s="10" t="s">
@@ -5881,19 +5893,19 @@
       </c>
     </row>
     <row r="19" spans="10:17">
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="27">
         <v>0</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="27">
         <v>5</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="P19" s="10">
@@ -5904,24 +5916,24 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="J20" s="24" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="J20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="27">
         <v>1</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="28" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="10">
@@ -5932,223 +5944,223 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="24"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="J21" s="24" t="s">
+      <c r="F21" s="28"/>
+      <c r="J21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="27">
         <v>3</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="27">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="38">
         <v>1</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="38">
         <v>1</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="27">
         <v>1</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="F22" s="28"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="38">
         <v>1</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="27">
         <v>1</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="38">
         <v>1</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="38">
         <v>1</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="O24" s="67"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="O24" s="70"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="29" s="64" customFormat="1" spans="2:15">
-      <c r="B29" s="65" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="29" s="67" customFormat="1" spans="2:15">
+      <c r="B29" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-    </row>
-    <row r="30" s="64" customFormat="1" spans="2:15">
-      <c r="B30" s="65" t="s">
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+    </row>
+    <row r="30" s="67" customFormat="1" spans="2:15">
+      <c r="B30" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-    </row>
-    <row r="31" s="64" customFormat="1" spans="2:15">
-      <c r="B31" s="65" t="s">
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+    </row>
+    <row r="31" s="67" customFormat="1" spans="2:15">
+      <c r="B31" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-    </row>
-    <row r="32" s="64" customFormat="1" spans="2:15">
-      <c r="B32" s="65" t="s">
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+    </row>
+    <row r="32" s="67" customFormat="1" spans="2:15">
+      <c r="B32" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="N32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" s="64" customFormat="1" spans="2:15">
-      <c r="B33" s="65" t="s">
+    <row r="33" s="67" customFormat="1" spans="2:15">
+      <c r="B33" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-    </row>
-    <row r="34" s="64" customFormat="1" spans="2:15">
-      <c r="B34" s="65" t="s">
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+    </row>
+    <row r="34" s="67" customFormat="1" spans="2:15">
+      <c r="B34" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
     </row>
     <row r="40" spans="9:9">
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="9:9">
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="28" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6576,7 +6588,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -6802,7 +6814,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -8585,7 +8597,7 @@
   </cols>
   <sheetData>
     <row r="6" ht="15.6" spans="3:3">
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="64" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8605,98 +8617,98 @@
       </c>
     </row>
     <row r="21" spans="4:9">
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="4:9">
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="38">
         <v>8</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="38">
         <v>30</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="27">
         <v>52</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="27">
         <v>74</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="27">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="4:9">
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="38">
         <v>10</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="38">
         <v>20</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="27">
         <v>30</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="27">
         <v>40</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="27">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="66" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="27">
         <v>2</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="27">
         <v>4</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="27">
         <v>8</v>
       </c>
     </row>
@@ -8726,569 +8738,569 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="20" customHeight="1" spans="12:19">
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27">
         <v>3</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="27">
         <v>3</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="27">
         <v>3</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="27">
         <v>2</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="27">
         <v>3</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="12:19">
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="12:18">
-      <c r="L4" s="24">
+      <c r="L4" s="27">
         <v>3</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="27">
         <f>1/(L4*N2)</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="27">
         <f>2/9</f>
         <v>0.222222222222222</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="27">
         <f>1/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="27">
         <f>3/9</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="12:19">
-      <c r="L5" s="24">
+      <c r="L5" s="27">
         <v>3</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:19">
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="L6" s="24">
+      <c r="J6" s="59"/>
+      <c r="L6" s="27">
         <v>3</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:20">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="L7" s="24">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="L7" s="27">
         <v>2</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="63"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:20">
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="L8" s="24">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="L8" s="27">
         <v>3</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="3:20">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="L9" s="24">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="L9" s="27">
         <v>3</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="63"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="3:20">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="3:20">
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="3:15">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="3:19">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="27" t="s">
         <v>63</v>
       </c>
       <c r="S13" s="11"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="3:19">
-      <c r="C14" s="51"/>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="24" t="s">
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="38">
         <v>4</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="38">
         <v>3</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35">
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38">
         <v>5</v>
       </c>
-      <c r="R14" s="35"/>
+      <c r="R14" s="38"/>
       <c r="S14" s="11"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="3:19">
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="38">
         <v>3</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="38">
         <v>4</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35">
+      <c r="F15" s="38"/>
+      <c r="G15" s="38">
         <v>5</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38">
         <v>1</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="24" t="s">
+      <c r="J15" s="60"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="38">
         <v>5</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35">
+      <c r="N15" s="38"/>
+      <c r="O15" s="38">
         <v>4</v>
       </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35">
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38">
         <v>4</v>
       </c>
-      <c r="R15" s="35"/>
+      <c r="R15" s="38"/>
       <c r="S15" s="11"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="3:19">
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="38">
         <v>2</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="38">
         <v>3</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="38">
         <v>3</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="24" t="s">
+      <c r="J16" s="60"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="38">
         <v>4</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35">
+      <c r="N16" s="38"/>
+      <c r="O16" s="38">
         <v>5</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="38">
         <v>3</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="38">
         <v>4</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="11"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="3:19">
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="27">
         <v>3</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27">
         <v>3</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27">
         <v>3</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="24" t="s">
+      <c r="I17" s="27"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35">
+      <c r="M17" s="38"/>
+      <c r="N17" s="38">
         <v>3</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35">
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38">
         <v>5</v>
       </c>
       <c r="S17" s="11"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="3:19">
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27">
         <v>3</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27">
         <v>3</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27">
         <v>3</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="24" t="s">
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38">
         <v>4</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35">
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38">
         <v>4</v>
       </c>
       <c r="S18" s="11"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:19">
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="27">
         <v>2</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27">
         <v>3</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27">
         <v>4</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="24" t="s">
+      <c r="I19" s="27"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38">
         <v>2</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="38">
         <v>4</v>
       </c>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35">
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38">
         <v>5</v>
       </c>
       <c r="S19" s="11"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="3:19">
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="28">
         <f t="shared" ref="D20:I20" si="0">COUNT(D15:D19)</f>
         <v>4</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="28"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="24">
+      <c r="M20" s="27">
         <f t="shared" ref="M20:R20" si="1">COUNT(M14:M19)</f>
         <v>3</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S20" s="11"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="3:3">
-      <c r="C21" s="54"/>
+      <c r="C21" s="57"/>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="3:3">
-      <c r="C22" s="54"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="3:3">
-      <c r="C23" s="54"/>
+      <c r="C23" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9316,214 +9328,214 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <v>1</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="27">
         <v>5</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="27">
         <v>10</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="24">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="27">
         <f>ABS(B7-$C$6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="27">
         <f>ABS(B7-$D$6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="27">
         <f>ABS(B7-$E$6)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" s="27" t="str">
         <f>IF(MATCH(MIN(C7:E7),C7:E7)=1,$C$5,IF(MATCH(MIN(C7:E7),C7:E7)=2,$D$5,$E$5))</f>
         <v>z1</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="24">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="27">
         <f t="shared" ref="C8:C15" si="0">ABS(B8-$C$6)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="27">
         <f t="shared" ref="D8:D15" si="1">ABS(B8-$D$6)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="27">
         <f t="shared" ref="E8:E15" si="2">ABS(B8-$E$6)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" s="27" t="str">
         <f t="shared" ref="F8" si="3">IF(MATCH(MIN(C8:E8),C8:E8)=1,$C$5,IF(MATCH(MIN(C8:E8),C8:E8)=2,$D$5,$E$5))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="24">
+      <c r="B9" s="27">
         <v>10</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="24">
+      <c r="B10" s="27">
         <v>9</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="24">
+      <c r="B11" s="27">
         <v>26</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="27">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="24">
+      <c r="B12" s="27">
         <v>32</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="27">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="24">
+      <c r="B13" s="27">
         <v>16</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="27">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="24">
+      <c r="B14" s="27">
         <v>21</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="27">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="24">
+      <c r="B15" s="27">
         <v>14</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="27">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="54" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9534,426 +9546,426 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="H21" s="24" t="s">
+      <c r="F21" s="27"/>
+      <c r="H21" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="27">
         <v>1</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="27">
         <v>5</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="27">
         <v>18.28</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="H22" s="24" t="s">
+      <c r="F22" s="27"/>
+      <c r="H22" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="27">
         <v>1</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="27">
         <v>5</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="27">
         <v>21.8</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="24">
+      <c r="B23" s="27">
         <v>1</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="55">
         <f>ABS(B23-$C$22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="55">
         <f>ABS(B23-$D$22)</f>
         <v>4</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="56">
         <f>ABS(B23-$E$22)</f>
         <v>17.28</v>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="F23" s="27" t="str">
         <f>IF(MATCH(MIN(C23:E23),C23:E23)=1,$C$21,IF(MATCH(MIN(C23:E23),C23:E23)=2,$D$21,$E$21))</f>
         <v>z1</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="27">
         <v>1</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="55">
         <f>ABS(H23-$I$22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="52">
+      <c r="J23" s="55">
         <f t="shared" ref="J23:J31" si="4">ABS(H23-$D$22)</f>
         <v>4</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="56">
         <f>ABS(H23-$K$22)</f>
         <v>20.8</v>
       </c>
-      <c r="L23" s="24" t="str">
+      <c r="L23" s="27" t="str">
         <f>IF(MATCH(MIN(I23:K23),I23:K23)=1,$C$21,IF(MATCH(MIN(I23:K23),I23:K23)=2,$D$21,$E$21))</f>
         <v>z1</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="24">
+      <c r="B24" s="27">
         <v>5</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="55">
         <f t="shared" ref="C24:C31" si="5">ABS(B24-$C$22)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="55">
         <f t="shared" ref="D24:D31" si="6">ABS(B24-$D$22)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="56">
         <f t="shared" ref="E24:E31" si="7">ABS(B24-$E$22)</f>
         <v>13.28</v>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="F24" s="27" t="str">
         <f>IF(MATCH(MIN(C24:E24),C24:E24)=1,$C$21,IF(MATCH(MIN(C24:E24),C24:E24)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="27">
         <v>5</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="55">
         <f t="shared" ref="I24:I31" si="8">ABS(H24-$I$22)</f>
         <v>4</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="56">
         <f t="shared" ref="K24:K31" si="9">ABS(H24-$K$22)</f>
         <v>16.8</v>
       </c>
-      <c r="L24" s="24" t="str">
+      <c r="L24" s="27" t="str">
         <f t="shared" ref="L23:L25" si="10">IF(MATCH(MIN(I24:K24),I24:K24)=1,$C$21,IF(MATCH(MIN(I24:K24),I24:K24)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="24">
+      <c r="B25" s="27">
         <v>10</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="55">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="55">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="56">
         <f t="shared" si="7"/>
         <v>8.28</v>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="F25" s="27" t="str">
         <f>IF(MATCH(MIN(C25:E25),C25:E25)=1,$C$21,IF(MATCH(MIN(C25:E25),C25:E25)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="27">
         <v>10</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="55">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J25" s="52">
+      <c r="J25" s="55">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="56">
         <f t="shared" si="9"/>
         <v>11.8</v>
       </c>
-      <c r="L25" s="24" t="str">
+      <c r="L25" s="27" t="str">
         <f t="shared" si="10"/>
         <v>z2</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="24">
+      <c r="B26" s="27">
         <v>9</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="55">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="55">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="56">
         <f t="shared" si="7"/>
         <v>9.28</v>
       </c>
-      <c r="F26" s="24" t="str">
+      <c r="F26" s="27" t="str">
         <f t="shared" ref="F26:F31" si="11">IF(MATCH(MIN(C26:E26),C26:E26,0)=1,$C$21,IF(MATCH(MIN(C26:E26),C26:E26,0)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="27">
         <v>9</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="55">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="55">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="56">
         <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
-      <c r="L26" s="24" t="str">
+      <c r="L26" s="27" t="str">
         <f t="shared" ref="L26:L31" si="12">IF(MATCH(MIN(I26:K26),I26:K26,0)=1,$C$21,IF(MATCH(MIN(I26:K26),I26:K26,0)=2,$D$21,$E$21))</f>
         <v>z2</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="24">
+      <c r="B27" s="27">
         <v>26</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="55">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="55">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="56">
         <f t="shared" si="7"/>
         <v>7.72</v>
       </c>
-      <c r="F27" s="35" t="str">
+      <c r="F27" s="38" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="27">
         <v>26</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="55">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="55">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="56">
         <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
-      <c r="L27" s="35" t="str">
+      <c r="L27" s="38" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="24">
+      <c r="B28" s="27">
         <v>32</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="55">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="55">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="56">
         <f t="shared" si="7"/>
         <v>13.72</v>
       </c>
-      <c r="F28" s="35" t="str">
+      <c r="F28" s="38" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="27">
         <v>32</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="55">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="55">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="56">
         <f t="shared" si="9"/>
         <v>10.2</v>
       </c>
-      <c r="L28" s="35" t="str">
+      <c r="L28" s="38" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="24">
+      <c r="B29" s="27">
         <v>16</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="55">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="55">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="56">
         <f t="shared" si="7"/>
         <v>2.28</v>
       </c>
-      <c r="F29" s="35" t="str">
+      <c r="F29" s="38" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="27">
         <v>16</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="55">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="55">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="56">
         <f t="shared" si="9"/>
         <v>5.8</v>
       </c>
-      <c r="L29" s="35" t="str">
+      <c r="L29" s="38" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="24">
+      <c r="B30" s="27">
         <v>21</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="55">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="55">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="56">
         <f t="shared" si="7"/>
         <v>2.72</v>
       </c>
-      <c r="F30" s="35" t="str">
+      <c r="F30" s="38" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="27">
         <v>21</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="55">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="55">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="56">
         <f t="shared" si="9"/>
         <v>0.800000000000001</v>
       </c>
-      <c r="L30" s="35" t="str">
+      <c r="L30" s="38" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="24">
+      <c r="B31" s="27">
         <v>14</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="55">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="55">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="56">
         <f t="shared" si="7"/>
         <v>4.28</v>
       </c>
-      <c r="F31" s="35" t="str">
+      <c r="F31" s="38" t="str">
         <f t="shared" si="11"/>
         <v>z3</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="27">
         <v>14</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="55">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="55">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="56">
         <f t="shared" si="9"/>
         <v>7.8</v>
       </c>
-      <c r="L31" s="35" t="str">
+      <c r="L31" s="38" t="str">
         <f t="shared" si="12"/>
         <v>z3</v>
       </c>
@@ -10038,127 +10050,127 @@
   <sheetData>
     <row r="14" ht="15.15"/>
     <row r="15" ht="20" customHeight="1" spans="2:8">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="8:8">
-      <c r="H16" s="41"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:8">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="G17" s="25" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="8:8">
-      <c r="H18" s="41"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="8:8">
-      <c r="H19" s="41"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="8:8">
-      <c r="H20" s="41"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:8">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="E21" s="24" t="s">
+      <c r="C21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="41"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:8">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="41"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="8:8">
-      <c r="H23" s="41"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="8:8">
-      <c r="H24" s="41"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="8:8">
-      <c r="H25" s="41"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:8">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:8">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:8">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="47"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:8">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="47"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:8">
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:8">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10208,7 +10220,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="34" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10218,7 +10230,7 @@
       </c>
     </row>
     <row r="6" ht="15" spans="12:12">
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="35" t="s">
         <v>94</v>
       </c>
     </row>
@@ -10233,17 +10245,17 @@
       </c>
     </row>
     <row r="25" ht="15" spans="13:13">
-      <c r="M25" s="33" t="s">
+      <c r="M25" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" ht="15" spans="13:13">
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" ht="15" spans="13:13">
-      <c r="M28" s="32" t="s">
+      <c r="M28" s="35" t="s">
         <v>94</v>
       </c>
     </row>
@@ -10359,19 +10371,19 @@
       <c r="D108"/>
     </row>
     <row r="132" ht="25" customHeight="1" spans="4:4">
-      <c r="D132" s="34" t="s">
+      <c r="D132" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="133" ht="25" customHeight="1"/>
     <row r="134" ht="25" customHeight="1" spans="4:10">
-      <c r="D134" s="24" t="s">
+      <c r="D134" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E134" s="24" t="s">
+      <c r="E134" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F134" s="24"/>
+      <c r="F134" s="27"/>
       <c r="H134" s="11" t="s">
         <v>121</v>
       </c>
@@ -10383,11 +10395,11 @@
       </c>
     </row>
     <row r="135" ht="25" customHeight="1" spans="4:10">
-      <c r="D135" s="24"/>
-      <c r="E135" s="24" t="s">
+      <c r="D135" s="27"/>
+      <c r="E135" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="27" t="s">
         <v>125</v>
       </c>
       <c r="H135" s="11" t="s">
@@ -10401,13 +10413,13 @@
       </c>
     </row>
     <row r="136" ht="25" customHeight="1" spans="4:10">
-      <c r="D136" s="24" t="s">
+      <c r="D136" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E136" s="24" t="s">
+      <c r="E136" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H136" s="11" t="s">
@@ -10421,13 +10433,13 @@
       </c>
     </row>
     <row r="137" ht="25" customHeight="1" spans="4:10">
-      <c r="D137" s="24" t="s">
+      <c r="D137" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E137" s="24" t="s">
+      <c r="E137" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F137" s="24" t="s">
+      <c r="F137" s="27" t="s">
         <v>134</v>
       </c>
       <c r="H137" s="11" t="s">
@@ -10443,40 +10455,40 @@
     <row r="138" ht="25" customHeight="1"/>
     <row r="139" ht="25" customHeight="1"/>
     <row r="140" ht="25" customHeight="1" spans="4:6">
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E140" s="24" t="s">
+      <c r="E140" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F140" s="24"/>
+      <c r="F140" s="27"/>
     </row>
     <row r="141" ht="25" customHeight="1" spans="4:6">
-      <c r="D141" s="24"/>
-      <c r="E141" s="24" t="s">
+      <c r="D141" s="27"/>
+      <c r="E141" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="142" ht="25" customHeight="1" spans="4:15">
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E142" s="35" t="s">
+      <c r="E142" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F142" s="36" t="s">
+      <c r="F142" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I142" s="31" t="s">
+      <c r="I142" s="34" t="s">
         <v>137</v>
       </c>
       <c r="J142" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K142" s="38" t="s">
+      <c r="K142" s="41" t="s">
         <v>139</v>
       </c>
       <c r="L142" s="10" t="s">
@@ -10487,13 +10499,13 @@
       </c>
     </row>
     <row r="143" ht="25" customHeight="1" spans="4:6">
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E143" s="36" t="s">
+      <c r="E143" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F143" s="35" t="s">
+      <c r="F143" s="38" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10511,29 +10523,29 @@
     <row r="147" ht="25" customHeight="1"/>
     <row r="148" ht="25" customHeight="1"/>
     <row r="149" ht="25" customHeight="1" spans="4:6">
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E149" s="24" t="s">
+      <c r="E149" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F149" s="24"/>
+      <c r="F149" s="27"/>
     </row>
     <row r="150" ht="25" customHeight="1" spans="4:14">
-      <c r="D150" s="24"/>
-      <c r="E150" s="37" t="s">
+      <c r="D150" s="27"/>
+      <c r="E150" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F150" s="24" t="s">
+      <c r="F150" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I150" s="31" t="s">
+      <c r="I150" s="34" t="s">
         <v>144</v>
       </c>
       <c r="J150" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K150" s="38" t="s">
+      <c r="K150" s="41" t="s">
         <v>139</v>
       </c>
       <c r="L150" s="10" t="s">
@@ -10544,53 +10556,53 @@
       </c>
     </row>
     <row r="151" ht="25" customHeight="1" spans="4:6">
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E151" s="37" t="s">
+      <c r="E151" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F151" s="24" t="s">
+      <c r="F151" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="152" ht="25" customHeight="1" spans="4:6">
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E152" s="37" t="s">
+      <c r="E152" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="F152" s="24" t="s">
+      <c r="F152" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="153" ht="25" customHeight="1"/>
     <row r="154" ht="25" customHeight="1"/>
     <row r="155" ht="25" customHeight="1" spans="4:6">
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E155" s="24" t="s">
+      <c r="E155" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F155" s="24"/>
+      <c r="F155" s="27"/>
     </row>
     <row r="156" ht="25" customHeight="1" spans="4:14">
-      <c r="D156" s="24"/>
-      <c r="E156" s="24" t="s">
+      <c r="D156" s="27"/>
+      <c r="E156" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F156" s="24" t="s">
+      <c r="F156" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I156" s="31" t="s">
+      <c r="I156" s="34" t="s">
         <v>148</v>
       </c>
       <c r="J156" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="K156" s="38" t="s">
+      <c r="K156" s="41" t="s">
         <v>139</v>
       </c>
       <c r="L156" s="10" t="s">
@@ -10601,36 +10613,36 @@
       </c>
     </row>
     <row r="157" ht="25" customHeight="1" spans="4:6">
-      <c r="D157" s="37" t="s">
+      <c r="D157" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="E157" s="37" t="s">
+      <c r="E157" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F157" s="37" t="s">
+      <c r="F157" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="158" ht="25" customHeight="1" spans="4:6">
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E158" s="24" t="s">
+      <c r="E158" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F158" s="24" t="s">
+      <c r="F158" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="159" ht="25" customHeight="1"/>
     <row r="160" ht="25" customHeight="1" spans="4:7">
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="34" t="s">
         <v>151</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F160" s="38" t="s">
+      <c r="F160" s="41" t="s">
         <v>139</v>
       </c>
       <c r="G160" s="10" t="s">
@@ -10639,35 +10651,35 @@
     </row>
     <row r="161" ht="25" customHeight="1"/>
     <row r="162" ht="25" customHeight="1" spans="4:6">
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E162" s="24" t="s">
+      <c r="E162" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F162" s="24"/>
+      <c r="F162" s="27"/>
     </row>
     <row r="163" ht="25" customHeight="1" spans="4:13">
-      <c r="D163" s="24"/>
-      <c r="E163" s="24" t="s">
+      <c r="D163" s="27"/>
+      <c r="E163" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F163" s="24" t="s">
+      <c r="F163" s="27" t="s">
         <v>125</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I163" s="35" t="s">
+      <c r="I163" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J163" s="35" t="s">
+      <c r="J163" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="K163" s="35" t="s">
+      <c r="K163" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="L163" s="35" t="s">
+      <c r="L163" s="38" t="s">
         <v>138</v>
       </c>
       <c r="M163" s="10" t="s">
@@ -10675,81 +10687,81 @@
       </c>
     </row>
     <row r="164" ht="25" customHeight="1" spans="4:6">
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E164" s="37" t="s">
+      <c r="E164" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F164" s="24" t="s">
+      <c r="F164" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="165" ht="25" customHeight="1" spans="4:6">
-      <c r="D165" s="24" t="s">
+      <c r="D165" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E165" s="24" t="s">
+      <c r="E165" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F165" s="37" t="s">
+      <c r="F165" s="40" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="166" ht="25" customHeight="1"/>
     <row r="167" ht="25" customHeight="1"/>
     <row r="168" ht="25" customHeight="1" spans="4:6">
-      <c r="D168" s="24" t="s">
+      <c r="D168" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E168" s="24" t="s">
+      <c r="E168" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F168" s="24"/>
+      <c r="F168" s="27"/>
     </row>
     <row r="169" ht="25" customHeight="1" spans="4:6">
-      <c r="D169" s="24"/>
-      <c r="E169" s="24" t="s">
+      <c r="D169" s="27"/>
+      <c r="E169" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F169" s="24" t="s">
+      <c r="F169" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="170" ht="25" customHeight="1" spans="4:12">
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E170" s="24" t="s">
+      <c r="E170" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F170" s="37" t="s">
+      <c r="F170" s="40" t="s">
         <v>130</v>
       </c>
       <c r="H170" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I170" s="36" t="s">
+      <c r="I170" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J170" s="36" t="s">
+      <c r="J170" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="K170" s="36" t="s">
+      <c r="K170" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="L170" s="36" t="s">
+      <c r="L170" s="39" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="171" ht="25" customHeight="1" spans="4:6">
-      <c r="D171" s="24" t="s">
+      <c r="D171" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E171" s="37" t="s">
+      <c r="E171" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="F171" s="24" t="s">
+      <c r="F171" s="27" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10886,28 +10898,28 @@
   <sheetPr/>
   <dimension ref="B8:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="8.88888888888889" style="10"/>
-    <col min="5" max="8" width="8.88888888888889" style="12"/>
+    <col min="5" max="8" width="8.88888888888889" style="15"/>
     <col min="9" max="11" width="8.88888888888889" style="10"/>
     <col min="12" max="12" width="9.44444444444444" style="10"/>
     <col min="13" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="8" ht="20" customHeight="1" spans="4:12">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="22"/>
       <c r="L8" s="10" t="s">
         <v>162</v>
       </c>
@@ -10916,98 +10928,98 @@
       <c r="D9" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="4:9">
       <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="4:9">
       <c r="D11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="4:9">
       <c r="D12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="4:9">
       <c r="D13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="11"/>
     </row>
     <row r="21" spans="4:21">
       <c r="D21" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="23" t="s">
         <v>171</v>
       </c>
     </row>
@@ -11015,339 +11027,339 @@
       <c r="D22" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="21">
+      <c r="H22" s="19"/>
+      <c r="I22" s="24">
         <v>1</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="24">
         <v>1</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="24">
         <v>4</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="R22" s="21">
+      <c r="L22" s="25"/>
+      <c r="R22" s="24">
         <v>1</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="24">
         <v>1</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="24">
         <v>4</v>
       </c>
-      <c r="U22" s="22"/>
+      <c r="U22" s="25"/>
     </row>
     <row r="23" spans="4:21">
       <c r="D23" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="21">
+      <c r="H23" s="19"/>
+      <c r="I23" s="24">
         <v>1</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="24">
         <v>3</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="24">
         <v>4</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="R23" s="21">
+      <c r="L23" s="25"/>
+      <c r="R23" s="24">
         <v>1</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="24">
         <v>3</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="24">
         <v>4</v>
       </c>
-      <c r="U23" s="22"/>
+      <c r="U23" s="25"/>
     </row>
     <row r="24" spans="4:21">
       <c r="D24" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="21">
+      <c r="H24" s="19"/>
+      <c r="I24" s="24">
         <v>1</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="24">
         <v>6</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="24">
         <v>4</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="R24" s="21">
+      <c r="L24" s="25"/>
+      <c r="R24" s="24">
         <v>1</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="24">
         <v>6</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="24">
         <v>4</v>
       </c>
-      <c r="U24" s="22"/>
+      <c r="U24" s="25"/>
     </row>
     <row r="25" spans="4:21">
       <c r="D25" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="21">
+      <c r="H25" s="19"/>
+      <c r="I25" s="24">
         <v>2</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="24">
         <v>3</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="24">
         <v>5</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="R25" s="21">
+      <c r="L25" s="25"/>
+      <c r="R25" s="24">
         <v>2</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="24">
         <v>3</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="24">
         <v>5</v>
       </c>
-      <c r="U25" s="22"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="4:21">
       <c r="D26" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="21">
+      <c r="H26" s="19"/>
+      <c r="I26" s="24">
         <v>2</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="24">
         <v>5</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="24">
         <v>5</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="R26" s="21">
+      <c r="L26" s="25"/>
+      <c r="R26" s="24">
         <v>2</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="24">
         <v>5</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="24">
         <v>5</v>
       </c>
-      <c r="U26" s="22"/>
+      <c r="U26" s="25"/>
     </row>
     <row r="27" spans="4:21">
       <c r="D27" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="21">
+      <c r="H27" s="19"/>
+      <c r="I27" s="24">
         <v>2</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="24">
         <v>7</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="24">
         <v>3</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="R27" s="21">
+      <c r="L27" s="25"/>
+      <c r="R27" s="24">
         <v>2</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27" s="24">
         <v>7</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27" s="24">
         <v>3</v>
       </c>
-      <c r="U27" s="22"/>
+      <c r="U27" s="25"/>
     </row>
     <row r="28" spans="4:21">
       <c r="D28" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="21">
+      <c r="H28" s="19"/>
+      <c r="I28" s="24">
         <v>2</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="24">
         <v>10</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="24">
         <v>5</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="R28" s="21">
+      <c r="L28" s="25"/>
+      <c r="R28" s="24">
         <v>2</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="24">
         <v>10</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28" s="24">
         <v>5</v>
       </c>
-      <c r="U28" s="22"/>
+      <c r="U28" s="25"/>
     </row>
     <row r="29" spans="4:21">
       <c r="D29" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="21">
+      <c r="H29" s="19"/>
+      <c r="I29" s="24">
         <v>3</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="24">
         <v>1</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="24">
         <v>4</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="R29" s="21">
+      <c r="L29" s="25"/>
+      <c r="R29" s="24">
         <v>3</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="24">
         <v>1</v>
       </c>
-      <c r="T29" s="21">
+      <c r="T29" s="24">
         <v>4</v>
       </c>
-      <c r="U29" s="22"/>
+      <c r="U29" s="25"/>
     </row>
     <row r="30" spans="4:21">
       <c r="D30" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="21">
+      <c r="H30" s="19"/>
+      <c r="I30" s="24">
         <v>3</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="24">
         <v>5</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="24">
         <v>5</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="R30" s="21">
+      <c r="L30" s="25"/>
+      <c r="R30" s="24">
         <v>3</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="24">
         <v>5</v>
       </c>
-      <c r="T30" s="21">
+      <c r="T30" s="24">
         <v>5</v>
       </c>
-      <c r="U30" s="22"/>
+      <c r="U30" s="25"/>
     </row>
     <row r="31" spans="4:21">
       <c r="D31" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="21">
+      <c r="H31" s="19"/>
+      <c r="I31" s="24">
         <v>3</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="24">
         <v>3</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="24">
         <v>5</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="R31" s="21">
+      <c r="L31" s="25"/>
+      <c r="R31" s="24">
         <v>3</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="24">
         <v>3</v>
       </c>
-      <c r="T31" s="21">
+      <c r="T31" s="24">
         <v>5</v>
       </c>
-      <c r="U31" s="22"/>
+      <c r="U31" s="25"/>
     </row>
     <row r="32" spans="4:21">
       <c r="D32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="21">
+      <c r="H32" s="19"/>
+      <c r="I32" s="24">
         <v>4</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="24">
         <v>3</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="24">
         <v>5</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="R32" s="21">
+      <c r="L32" s="25"/>
+      <c r="R32" s="24">
         <v>4</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="24">
         <v>3</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32" s="24">
         <v>5</v>
       </c>
-      <c r="U32" s="22"/>
+      <c r="U32" s="25"/>
     </row>
     <row r="33" spans="4:21">
       <c r="D33" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="21">
+      <c r="H33" s="19"/>
+      <c r="I33" s="24">
         <v>4</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="24">
         <v>2</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="24">
         <v>5</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="R33" s="21">
+      <c r="L33" s="25"/>
+      <c r="R33" s="24">
         <v>4</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="24">
         <v>2</v>
       </c>
-      <c r="T33" s="21">
+      <c r="T33" s="24">
         <v>5</v>
       </c>
-      <c r="U33" s="22"/>
+      <c r="U33" s="25"/>
     </row>
     <row r="34" spans="4:21">
       <c r="D34" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="21">
+      <c r="H34" s="19"/>
+      <c r="I34" s="24">
         <v>4</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="24">
         <v>5</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="24">
         <v>3</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="R34" s="21">
+      <c r="L34" s="25"/>
+      <c r="R34" s="24">
         <v>4</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="24">
         <v>5</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="24">
         <v>3</v>
       </c>
-      <c r="U34" s="22"/>
+      <c r="U34" s="25"/>
     </row>
     <row r="35" spans="9:18">
       <c r="I35" s="10">
@@ -11360,730 +11372,730 @@
       </c>
     </row>
     <row r="36" spans="9:25">
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="R36" s="23" t="s">
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="R36" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="S36" s="23" t="s">
+      <c r="S36" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
     </row>
     <row r="37" spans="9:25">
-      <c r="I37" s="24"/>
-      <c r="J37" s="24">
+      <c r="I37" s="27"/>
+      <c r="J37" s="27">
         <v>1</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="27">
         <v>3</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="27">
         <v>6</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="27">
         <v>5</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="27">
         <v>7</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="27">
         <v>10</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="27">
         <v>2</v>
       </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24">
+      <c r="R37" s="27"/>
+      <c r="S37" s="27">
         <v>1</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="27">
         <v>3</v>
       </c>
-      <c r="U37" s="24">
+      <c r="U37" s="27">
         <v>6</v>
       </c>
-      <c r="V37" s="24">
+      <c r="V37" s="27">
         <v>5</v>
       </c>
-      <c r="W37" s="24">
+      <c r="W37" s="27">
         <v>7</v>
       </c>
-      <c r="X37" s="24">
+      <c r="X37" s="27">
         <v>10</v>
       </c>
-      <c r="Y37" s="24">
+      <c r="Y37" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="9:25">
-      <c r="I38" s="24">
+      <c r="I38" s="27">
         <v>1</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="27">
         <v>4</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="27">
         <v>4</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="27">
         <v>4</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="27">
         <v>0</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="27">
         <v>0</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="27">
         <v>0</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="27">
         <v>0</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="27">
         <v>1</v>
       </c>
-      <c r="S38" s="24">
+      <c r="S38" s="27">
         <v>4</v>
       </c>
-      <c r="T38" s="24">
+      <c r="T38" s="27">
         <v>4</v>
       </c>
-      <c r="U38" s="24">
+      <c r="U38" s="27">
         <v>4</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38" s="27">
         <v>0</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W38" s="27">
         <v>0</v>
       </c>
-      <c r="X38" s="24">
+      <c r="X38" s="27">
         <v>0</v>
       </c>
-      <c r="Y38" s="24">
+      <c r="Y38" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:25">
-      <c r="I39" s="24">
+      <c r="I39" s="27">
         <v>2</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="27">
         <v>0</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="27">
         <v>5</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="27">
         <v>0</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="27">
         <v>5</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="27">
         <v>3</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="27">
         <v>5</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="27">
         <v>0</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="27">
         <v>2</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="27">
         <v>0</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="27">
         <v>5</v>
       </c>
-      <c r="U39" s="24">
+      <c r="U39" s="27">
         <v>0</v>
       </c>
-      <c r="V39" s="24">
+      <c r="V39" s="27">
         <v>5</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39" s="27">
         <v>3</v>
       </c>
-      <c r="X39" s="24">
+      <c r="X39" s="27">
         <v>5</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="9:25">
-      <c r="I40" s="24">
+      <c r="I40" s="27">
         <v>3</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="27">
         <v>4</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="27">
         <v>5</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="27">
         <v>0</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="27">
         <v>5</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="27">
         <v>0</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="27">
         <v>0</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="27">
         <v>0</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="27">
         <v>3</v>
       </c>
-      <c r="S40" s="24">
+      <c r="S40" s="27">
         <v>4</v>
       </c>
-      <c r="T40" s="24">
+      <c r="T40" s="27">
         <v>5</v>
       </c>
-      <c r="U40" s="24">
+      <c r="U40" s="27">
         <v>0</v>
       </c>
-      <c r="V40" s="24">
+      <c r="V40" s="27">
         <v>5</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="27">
         <v>0</v>
       </c>
-      <c r="X40" s="24">
+      <c r="X40" s="27">
         <v>0</v>
       </c>
-      <c r="Y40" s="24">
+      <c r="Y40" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:25">
-      <c r="I41" s="24">
+      <c r="I41" s="27">
         <v>4</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="27">
         <v>0</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="27">
         <v>5</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="27">
         <v>0</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="27">
         <v>3</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N41" s="27">
         <v>0</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="27">
         <v>0</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P41" s="27">
         <v>5</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R41" s="27">
         <v>4</v>
       </c>
-      <c r="S41" s="24">
+      <c r="S41" s="27">
         <v>0</v>
       </c>
-      <c r="T41" s="24">
+      <c r="T41" s="27">
         <v>5</v>
       </c>
-      <c r="U41" s="24">
+      <c r="U41" s="27">
         <v>0</v>
       </c>
-      <c r="V41" s="24">
+      <c r="V41" s="27">
         <v>3</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41" s="27">
         <v>0</v>
       </c>
-      <c r="X41" s="24">
+      <c r="X41" s="27">
         <v>0</v>
       </c>
-      <c r="Y41" s="24">
+      <c r="Y41" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="19:25">
-      <c r="S42" s="24">
+      <c r="S42" s="27">
         <v>1</v>
       </c>
-      <c r="T42" s="24">
+      <c r="T42" s="27">
         <v>3</v>
       </c>
-      <c r="U42" s="24">
+      <c r="U42" s="27">
         <v>6</v>
       </c>
-      <c r="V42" s="24">
+      <c r="V42" s="27">
         <v>5</v>
       </c>
-      <c r="W42" s="24">
+      <c r="W42" s="27">
         <v>7</v>
       </c>
-      <c r="X42" s="24">
+      <c r="X42" s="27">
         <v>10</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="Y42" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="18:18">
-      <c r="R43" s="24">
+      <c r="R43" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="9:18">
-      <c r="I44" s="23"/>
-      <c r="J44" s="23">
+      <c r="I44" s="26"/>
+      <c r="J44" s="26">
         <v>0</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="26">
         <v>1</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="26">
         <v>2</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="26">
         <v>3</v>
       </c>
-      <c r="N44" s="25"/>
-      <c r="R44" s="24">
+      <c r="N44" s="28"/>
+      <c r="R44" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="6:18">
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="29">
         <v>0</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="30">
         <v>1</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="30">
         <v>9.591663</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="30">
         <v>6.480741</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="30">
         <v>8.185353</v>
       </c>
-      <c r="N45" s="25"/>
-      <c r="R45" s="24">
+      <c r="N45" s="28"/>
+      <c r="R45" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="9:18">
-      <c r="I46" s="26">
+      <c r="I46" s="29">
         <v>1</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J46" s="30">
         <v>9.591663</v>
       </c>
-      <c r="K46" s="27">
+      <c r="K46" s="30">
         <v>1</v>
       </c>
-      <c r="L46" s="27">
+      <c r="L46" s="30">
         <v>7.071068</v>
       </c>
-      <c r="M46" s="27">
+      <c r="M46" s="30">
         <v>7.937254</v>
       </c>
-      <c r="N46" s="25"/>
-      <c r="R46" s="24">
+      <c r="N46" s="28"/>
+      <c r="R46" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="9:18">
-      <c r="I47" s="26">
+      <c r="I47" s="29">
         <v>2</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="30">
         <v>6.480741</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K47" s="30">
         <v>7.071068</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="30">
         <v>1</v>
       </c>
-      <c r="M47" s="27">
+      <c r="M47" s="30">
         <v>6.708204</v>
       </c>
-      <c r="N47" s="25"/>
-      <c r="R47" s="24">
+      <c r="N47" s="28"/>
+      <c r="R47" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="9:18">
-      <c r="I48" s="26">
+      <c r="I48" s="29">
         <v>3</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J48" s="30">
         <v>8.185353</v>
       </c>
-      <c r="K48" s="27">
+      <c r="K48" s="30">
         <v>7.937254</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="30">
         <v>6.708204</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="30">
         <v>1</v>
       </c>
-      <c r="N48" s="25"/>
-      <c r="R48" s="24">
+      <c r="N48" s="28"/>
+      <c r="R48" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="9:18">
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="R49" s="24">
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="R49" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="9:14">
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
     </row>
     <row r="51" ht="15.6" spans="5:14">
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23">
+      <c r="I51" s="27"/>
+      <c r="J51" s="26">
         <v>0</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="26">
         <v>1</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="26">
         <v>2</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="26">
         <v>3</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="28"/>
     </row>
     <row r="52" spans="9:14">
-      <c r="I52" s="26">
+      <c r="I52" s="29">
         <v>0</v>
       </c>
-      <c r="J52" s="27">
+      <c r="J52" s="30">
         <v>1</v>
       </c>
-      <c r="K52" s="27">
+      <c r="K52" s="30">
         <v>22</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="30">
         <v>10</v>
       </c>
-      <c r="M52" s="27">
+      <c r="M52" s="30">
         <v>17</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="28"/>
     </row>
     <row r="53" spans="9:14">
-      <c r="I53" s="26">
+      <c r="I53" s="29">
         <v>1</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J53" s="30">
         <v>22</v>
       </c>
-      <c r="K53" s="27">
+      <c r="K53" s="30">
         <v>1</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="30">
         <v>12</v>
       </c>
-      <c r="M53" s="27">
+      <c r="M53" s="30">
         <v>15</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="28"/>
     </row>
     <row r="54" spans="9:14">
-      <c r="I54" s="26">
+      <c r="I54" s="29">
         <v>2</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J54" s="30">
         <v>10</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K54" s="30">
         <v>12</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="30">
         <v>1</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M54" s="30">
         <v>11</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="28"/>
     </row>
     <row r="55" spans="9:14">
-      <c r="I55" s="26">
+      <c r="I55" s="29">
         <v>3</v>
       </c>
-      <c r="J55" s="27">
+      <c r="J55" s="30">
         <v>17</v>
       </c>
-      <c r="K55" s="27">
+      <c r="K55" s="30">
         <v>15</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="30">
         <v>11</v>
       </c>
-      <c r="M55" s="27">
+      <c r="M55" s="30">
         <v>1</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="28"/>
     </row>
     <row r="56" spans="9:14">
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
     </row>
     <row r="57" spans="9:14">
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
     </row>
     <row r="58" spans="9:14">
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
     </row>
     <row r="59" ht="15.6" spans="5:14">
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23">
+      <c r="I59" s="26"/>
+      <c r="J59" s="26">
         <v>0</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="26">
         <v>1</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="26">
         <v>2</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="26">
         <v>3</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="28"/>
     </row>
     <row r="60" spans="9:14">
-      <c r="I60" s="26">
+      <c r="I60" s="29">
         <v>0</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J60" s="30">
         <v>1</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K60" s="30">
         <v>6.553001</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="30">
         <v>5.449632</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M60" s="30">
         <v>5.908822</v>
       </c>
-      <c r="N60" s="25"/>
+      <c r="N60" s="28"/>
     </row>
     <row r="61" spans="9:14">
-      <c r="I61" s="26">
+      <c r="I61" s="29">
         <v>1</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="30">
         <v>6.553001</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="30">
         <v>1</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="30">
         <v>5.569212</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="30">
         <v>6.058176</v>
       </c>
-      <c r="N61" s="25"/>
+      <c r="N61" s="28"/>
     </row>
     <row r="62" spans="9:14">
-      <c r="I62" s="26">
+      <c r="I62" s="29">
         <v>2</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J62" s="30">
         <v>5.449632</v>
       </c>
-      <c r="K62" s="27">
+      <c r="K62" s="30">
         <v>5.569212</v>
       </c>
-      <c r="L62" s="27">
+      <c r="L62" s="30">
         <v>1</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M62" s="30">
         <v>5.472656</v>
       </c>
-      <c r="N62" s="25"/>
+      <c r="N62" s="28"/>
     </row>
     <row r="63" spans="9:14">
-      <c r="I63" s="26">
+      <c r="I63" s="29">
         <v>3</v>
       </c>
-      <c r="J63" s="27">
+      <c r="J63" s="30">
         <v>5.908822</v>
       </c>
-      <c r="K63" s="27">
+      <c r="K63" s="30">
         <v>6.058176</v>
       </c>
-      <c r="L63" s="27">
+      <c r="L63" s="30">
         <v>5.472656</v>
       </c>
-      <c r="M63" s="27">
+      <c r="M63" s="30">
         <v>1</v>
       </c>
-      <c r="N63" s="25"/>
+      <c r="N63" s="28"/>
     </row>
     <row r="64" spans="9:14">
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
     </row>
     <row r="67" ht="15.6" spans="5:13">
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="23">
+      <c r="I67" s="27"/>
+      <c r="J67" s="26">
         <v>0</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K67" s="26">
         <v>1</v>
       </c>
-      <c r="L67" s="23">
+      <c r="L67" s="26">
         <v>2</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M67" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="9:13">
-      <c r="I68" s="26">
+      <c r="I68" s="29">
         <v>0</v>
       </c>
-      <c r="J68" s="27">
+      <c r="J68" s="30">
         <v>1</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K68" s="30">
         <v>5</v>
       </c>
-      <c r="L68" s="27">
+      <c r="L68" s="30">
         <v>5</v>
       </c>
-      <c r="M68" s="27">
+      <c r="M68" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="9:13">
-      <c r="I69" s="26">
+      <c r="I69" s="29">
         <v>1</v>
       </c>
-      <c r="J69" s="27">
+      <c r="J69" s="30">
         <v>5</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K69" s="30">
         <v>1</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L69" s="30">
         <v>5</v>
       </c>
-      <c r="M69" s="27">
+      <c r="M69" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="9:13">
-      <c r="I70" s="26">
+      <c r="I70" s="29">
         <v>2</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="30">
         <v>5</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="30">
         <v>5</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="30">
         <v>1</v>
       </c>
-      <c r="M70" s="27">
+      <c r="M70" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="9:13">
-      <c r="I71" s="26">
+      <c r="I71" s="29">
         <v>3</v>
       </c>
-      <c r="J71" s="27">
+      <c r="J71" s="30">
         <v>5</v>
       </c>
-      <c r="K71" s="27">
+      <c r="K71" s="30">
         <v>5</v>
       </c>
-      <c r="L71" s="27">
+      <c r="L71" s="30">
         <v>5</v>
       </c>
-      <c r="M71" s="27">
+      <c r="M71" s="30">
         <v>1</v>
       </c>
     </row>
@@ -12091,1293 +12103,1293 @@
       <c r="I73"/>
     </row>
     <row r="74" spans="3:26">
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="W74" s="20"/>
-      <c r="X74" s="20"/>
-      <c r="Y74" s="20"/>
-      <c r="Z74" s="20"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
     </row>
     <row r="75" spans="2:27">
-      <c r="B75" s="28"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23">
+      <c r="B75" s="31"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26">
         <v>0</v>
       </c>
-      <c r="K75" s="23">
+      <c r="K75" s="26">
         <v>1</v>
       </c>
-      <c r="L75" s="23">
+      <c r="L75" s="26">
         <v>2</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M75" s="26">
         <v>3</v>
       </c>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="28"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="31"/>
     </row>
     <row r="76" spans="2:27">
-      <c r="B76" s="28"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="26">
+      <c r="B76" s="31"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="29">
         <v>0</v>
       </c>
-      <c r="J76" s="27">
+      <c r="J76" s="30">
         <v>1</v>
       </c>
-      <c r="K76" s="27">
+      <c r="K76" s="30">
         <v>0.31497</v>
       </c>
-      <c r="L76" s="27">
+      <c r="L76" s="30">
         <v>0.639602</v>
       </c>
-      <c r="M76" s="27">
+      <c r="M76" s="30">
         <v>0.375823</v>
       </c>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="28"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+      <c r="AA76" s="31"/>
     </row>
     <row r="77" ht="15.6" spans="2:27">
-      <c r="B77" s="28"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="18" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="26">
+      <c r="G77" s="31"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="29">
         <v>1</v>
       </c>
-      <c r="J77" s="27">
+      <c r="J77" s="30">
         <v>0.31497</v>
       </c>
-      <c r="K77" s="27">
+      <c r="K77" s="30">
         <v>1</v>
       </c>
-      <c r="L77" s="27">
+      <c r="L77" s="30">
         <v>0.671519</v>
       </c>
-      <c r="M77" s="27">
+      <c r="M77" s="30">
         <v>0.568191</v>
       </c>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="28"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="31"/>
     </row>
     <row r="78" spans="2:27">
-      <c r="B78" s="28"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="26">
+      <c r="B78" s="31"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="29">
         <v>2</v>
       </c>
-      <c r="J78" s="27">
+      <c r="J78" s="30">
         <v>0.639602</v>
       </c>
-      <c r="K78" s="27">
+      <c r="K78" s="30">
         <v>0.671519</v>
       </c>
-      <c r="L78" s="27">
+      <c r="L78" s="30">
         <v>1</v>
       </c>
-      <c r="M78" s="27">
+      <c r="M78" s="30">
         <v>0.641006</v>
       </c>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="28"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="31"/>
     </row>
     <row r="79" spans="3:26">
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="26">
+      <c r="H79" s="23"/>
+      <c r="I79" s="29">
         <v>3</v>
       </c>
-      <c r="J79" s="27">
+      <c r="J79" s="30">
         <v>0.375823</v>
       </c>
-      <c r="K79" s="27">
+      <c r="K79" s="30">
         <v>0.568191</v>
       </c>
-      <c r="L79" s="27">
+      <c r="L79" s="30">
         <v>0.641006</v>
       </c>
-      <c r="M79" s="27">
+      <c r="M79" s="30">
         <v>1</v>
       </c>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="W79" s="20"/>
-      <c r="X79" s="20"/>
-      <c r="Y79" s="20"/>
-      <c r="Z79" s="20"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="23"/>
+      <c r="Z79" s="23"/>
     </row>
     <row r="80" spans="2:27">
-      <c r="B80" s="28"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="28"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="25"/>
+      <c r="X80" s="25"/>
+      <c r="Y80" s="25"/>
+      <c r="Z80" s="25"/>
+      <c r="AA80" s="31"/>
     </row>
     <row r="81" spans="2:27">
-      <c r="B81" s="28"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="28"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="31"/>
+      <c r="W81" s="25"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
+      <c r="AA81" s="31"/>
     </row>
     <row r="82" spans="2:27">
-      <c r="B82" s="28"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="28"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="25"/>
+      <c r="X82" s="25"/>
+      <c r="Y82" s="25"/>
+      <c r="Z82" s="25"/>
+      <c r="AA82" s="31"/>
     </row>
     <row r="83" spans="2:27">
-      <c r="B83" s="28"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="28"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="31"/>
+      <c r="W83" s="25"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25"/>
+      <c r="AA83" s="31"/>
     </row>
     <row r="84" spans="3:26">
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
       <c r="G84" s="10"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29">
+      <c r="H84" s="23"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32">
         <v>0</v>
       </c>
-      <c r="K84" s="29">
+      <c r="K84" s="32">
         <v>1</v>
       </c>
-      <c r="L84" s="29">
+      <c r="L84" s="32">
         <v>2</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="32">
         <v>3</v>
       </c>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
     </row>
     <row r="85" ht="15.6" spans="2:27">
-      <c r="B85" s="28"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="18" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G85" s="28"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="30">
+      <c r="G85" s="31"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="33">
         <v>0</v>
       </c>
-      <c r="J85" s="21">
+      <c r="J85" s="24">
         <v>1</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="24">
         <v>0.25</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L85" s="24">
         <v>0.666667</v>
       </c>
-      <c r="M85" s="21">
+      <c r="M85" s="24">
         <v>0.25</v>
       </c>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="28"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="22"/>
-      <c r="AA85" s="28"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="31"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="31"/>
     </row>
     <row r="86" spans="2:27">
-      <c r="B86" s="28"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="30">
+      <c r="B86" s="31"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="33">
         <v>1</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J86" s="24">
         <v>0.25</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="24">
         <v>1</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L86" s="24">
         <v>0.5</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M86" s="24">
         <v>1</v>
       </c>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="28"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="25"/>
+      <c r="Z86" s="25"/>
+      <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="2:27">
-      <c r="B87" s="28"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="30">
+      <c r="B87" s="31"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="33">
         <v>2</v>
       </c>
-      <c r="J87" s="21">
+      <c r="J87" s="24">
         <v>0.666667</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K87" s="24">
         <v>0.5</v>
       </c>
-      <c r="L87" s="21">
+      <c r="L87" s="24">
         <v>1</v>
       </c>
-      <c r="M87" s="21">
+      <c r="M87" s="24">
         <v>0.5</v>
       </c>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="28"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="2:27">
-      <c r="B88" s="28"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="30">
+      <c r="B88" s="31"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="33">
         <v>3</v>
       </c>
-      <c r="J88" s="21">
+      <c r="J88" s="24">
         <v>0.25</v>
       </c>
-      <c r="K88" s="21">
+      <c r="K88" s="24">
         <v>1</v>
       </c>
-      <c r="L88" s="21">
+      <c r="L88" s="24">
         <v>0.5</v>
       </c>
-      <c r="M88" s="21">
+      <c r="M88" s="24">
         <v>1</v>
       </c>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
-      <c r="AA88" s="28"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="31"/>
+      <c r="W88" s="25"/>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="31"/>
     </row>
     <row r="89" spans="3:26">
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="10"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="W89" s="20"/>
-      <c r="X89" s="20"/>
-      <c r="Y89" s="20"/>
-      <c r="Z89" s="20"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
+      <c r="W89" s="23"/>
+      <c r="X89" s="23"/>
+      <c r="Y89" s="23"/>
+      <c r="Z89" s="23"/>
     </row>
     <row r="90" spans="2:27">
-      <c r="B90" s="28"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
-      <c r="AA90" s="28"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="31"/>
+      <c r="W90" s="25"/>
+      <c r="X90" s="25"/>
+      <c r="Y90" s="25"/>
+      <c r="Z90" s="25"/>
+      <c r="AA90" s="31"/>
     </row>
     <row r="91" spans="2:27">
-      <c r="B91" s="28"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="28"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="31"/>
+      <c r="W91" s="25"/>
+      <c r="X91" s="25"/>
+      <c r="Y91" s="25"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="31"/>
     </row>
     <row r="92" spans="2:27">
-      <c r="B92" s="28"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="22"/>
-      <c r="AA92" s="28"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="31"/>
+      <c r="W92" s="25"/>
+      <c r="X92" s="25"/>
+      <c r="Y92" s="25"/>
+      <c r="Z92" s="25"/>
+      <c r="AA92" s="31"/>
     </row>
     <row r="93" spans="2:27">
-      <c r="B93" s="28"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="28"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="28"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="31"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="31"/>
+      <c r="W93" s="25"/>
+      <c r="X93" s="25"/>
+      <c r="Y93" s="25"/>
+      <c r="Z93" s="25"/>
+      <c r="AA93" s="31"/>
     </row>
     <row r="94" spans="3:26">
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="20"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
-      <c r="W94" s="20"/>
-      <c r="X94" s="20"/>
-      <c r="Y94" s="20"/>
-      <c r="Z94" s="20"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="23"/>
+      <c r="U94" s="23"/>
+      <c r="W94" s="23"/>
+      <c r="X94" s="23"/>
+      <c r="Y94" s="23"/>
+      <c r="Z94" s="23"/>
     </row>
     <row r="95" spans="2:27">
-      <c r="B95" s="28"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="28"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="22"/>
-      <c r="X95" s="22"/>
-      <c r="Y95" s="22"/>
-      <c r="Z95" s="22"/>
-      <c r="AA95" s="28"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="31"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="31"/>
+      <c r="W95" s="25"/>
+      <c r="X95" s="25"/>
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="25"/>
+      <c r="AA95" s="31"/>
     </row>
     <row r="96" spans="2:27">
-      <c r="B96" s="28"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="28"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="31"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="25"/>
+      <c r="AA96" s="31"/>
     </row>
     <row r="97" spans="2:27">
-      <c r="B97" s="28"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="28"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="28"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="25"/>
+      <c r="X97" s="25"/>
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="31"/>
     </row>
     <row r="98" spans="2:27">
-      <c r="B98" s="28"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="28"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-      <c r="Y98" s="22"/>
-      <c r="Z98" s="22"/>
-      <c r="AA98" s="28"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="31"/>
+      <c r="W98" s="25"/>
+      <c r="X98" s="25"/>
+      <c r="Y98" s="25"/>
+      <c r="Z98" s="25"/>
+      <c r="AA98" s="31"/>
     </row>
     <row r="99" spans="3:26">
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
       <c r="G99" s="10"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="W99" s="20"/>
-      <c r="X99" s="20"/>
-      <c r="Y99" s="20"/>
-      <c r="Z99" s="20"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="23"/>
+      <c r="Z99" s="23"/>
     </row>
     <row r="100" spans="2:27">
-      <c r="B100" s="28"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="28"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="31"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="31"/>
+      <c r="W100" s="25"/>
+      <c r="X100" s="25"/>
+      <c r="Y100" s="25"/>
+      <c r="Z100" s="25"/>
+      <c r="AA100" s="31"/>
     </row>
     <row r="101" spans="2:27">
-      <c r="B101" s="28"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
-      <c r="Y101" s="22"/>
-      <c r="Z101" s="22"/>
-      <c r="AA101" s="28"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="31"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="25"/>
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="31"/>
     </row>
     <row r="102" spans="2:27">
-      <c r="B102" s="28"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="28"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="31"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="31"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="31"/>
     </row>
     <row r="103" spans="2:27">
-      <c r="B103" s="28"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="22"/>
-      <c r="AA103" s="28"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="31"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="31"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="25"/>
+      <c r="AA103" s="31"/>
     </row>
     <row r="104" spans="3:26">
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="W104" s="20"/>
-      <c r="X104" s="20"/>
-      <c r="Y104" s="20"/>
-      <c r="Z104" s="20"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="R104" s="23"/>
+      <c r="S104" s="23"/>
+      <c r="T104" s="23"/>
+      <c r="U104" s="23"/>
+      <c r="W104" s="23"/>
+      <c r="X104" s="23"/>
+      <c r="Y104" s="23"/>
+      <c r="Z104" s="23"/>
     </row>
     <row r="105" spans="2:27">
-      <c r="B105" s="28"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="28"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="31"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="31"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
+      <c r="T105" s="25"/>
+      <c r="U105" s="25"/>
+      <c r="V105" s="31"/>
+      <c r="W105" s="25"/>
+      <c r="X105" s="25"/>
+      <c r="Y105" s="25"/>
+      <c r="Z105" s="25"/>
+      <c r="AA105" s="31"/>
     </row>
     <row r="106" spans="2:27">
-      <c r="B106" s="28"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="28"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="28"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-      <c r="Y106" s="22"/>
-      <c r="Z106" s="22"/>
-      <c r="AA106" s="28"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="31"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
+      <c r="T106" s="25"/>
+      <c r="U106" s="25"/>
+      <c r="V106" s="31"/>
+      <c r="W106" s="25"/>
+      <c r="X106" s="25"/>
+      <c r="Y106" s="25"/>
+      <c r="Z106" s="25"/>
+      <c r="AA106" s="31"/>
     </row>
     <row r="107" spans="2:27">
-      <c r="B107" s="28"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-      <c r="Y107" s="22"/>
-      <c r="Z107" s="22"/>
-      <c r="AA107" s="28"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="31"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="25"/>
+      <c r="U107" s="25"/>
+      <c r="V107" s="31"/>
+      <c r="W107" s="25"/>
+      <c r="X107" s="25"/>
+      <c r="Y107" s="25"/>
+      <c r="Z107" s="25"/>
+      <c r="AA107" s="31"/>
     </row>
     <row r="108" spans="2:27">
-      <c r="B108" s="28"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="22"/>
-      <c r="AA108" s="28"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="31"/>
+      <c r="W108" s="25"/>
+      <c r="X108" s="25"/>
+      <c r="Y108" s="25"/>
+      <c r="Z108" s="25"/>
+      <c r="AA108" s="31"/>
     </row>
     <row r="109" spans="3:26">
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="R109" s="20"/>
-      <c r="S109" s="20"/>
-      <c r="T109" s="20"/>
-      <c r="U109" s="20"/>
-      <c r="W109" s="20"/>
-      <c r="X109" s="20"/>
-      <c r="Y109" s="20"/>
-      <c r="Z109" s="20"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="23"/>
+      <c r="U109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="23"/>
+      <c r="Y109" s="23"/>
+      <c r="Z109" s="23"/>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="28"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-      <c r="Y110" s="22"/>
-      <c r="Z110" s="22"/>
-      <c r="AA110" s="28"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="31"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="31"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="31"/>
+      <c r="W110" s="25"/>
+      <c r="X110" s="25"/>
+      <c r="Y110" s="25"/>
+      <c r="Z110" s="25"/>
+      <c r="AA110" s="31"/>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="28"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="28"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
-      <c r="Z111" s="22"/>
-      <c r="AA111" s="28"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="31"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="31"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="25"/>
+      <c r="Z111" s="25"/>
+      <c r="AA111" s="31"/>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="28"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="28"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="28"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="28"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="31"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="31"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="31"/>
+      <c r="W112" s="25"/>
+      <c r="X112" s="25"/>
+      <c r="Y112" s="25"/>
+      <c r="Z112" s="25"/>
+      <c r="AA112" s="31"/>
     </row>
     <row r="113" spans="2:27">
-      <c r="B113" s="28"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="28"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="28"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="31"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="25"/>
+      <c r="T113" s="25"/>
+      <c r="U113" s="25"/>
+      <c r="V113" s="31"/>
+      <c r="W113" s="25"/>
+      <c r="X113" s="25"/>
+      <c r="Y113" s="25"/>
+      <c r="Z113" s="25"/>
+      <c r="AA113" s="31"/>
     </row>
     <row r="114" spans="3:26">
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
-      <c r="R114" s="20"/>
-      <c r="S114" s="20"/>
-      <c r="T114" s="20"/>
-      <c r="U114" s="20"/>
-      <c r="W114" s="20"/>
-      <c r="X114" s="20"/>
-      <c r="Y114" s="20"/>
-      <c r="Z114" s="20"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="23"/>
+      <c r="R114" s="23"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="23"/>
+      <c r="U114" s="23"/>
+      <c r="W114" s="23"/>
+      <c r="X114" s="23"/>
+      <c r="Y114" s="23"/>
+      <c r="Z114" s="23"/>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="28"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="28"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
-      <c r="U115" s="22"/>
-      <c r="V115" s="28"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="22"/>
-      <c r="Y115" s="22"/>
-      <c r="Z115" s="22"/>
-      <c r="AA115" s="28"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="31"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="31"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="25"/>
+      <c r="U115" s="25"/>
+      <c r="V115" s="31"/>
+      <c r="W115" s="25"/>
+      <c r="X115" s="25"/>
+      <c r="Y115" s="25"/>
+      <c r="Z115" s="25"/>
+      <c r="AA115" s="31"/>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="28"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="28"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
-      <c r="U116" s="22"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="22"/>
-      <c r="X116" s="22"/>
-      <c r="Y116" s="22"/>
-      <c r="Z116" s="22"/>
-      <c r="AA116" s="28"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="31"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="25"/>
+      <c r="V116" s="31"/>
+      <c r="W116" s="25"/>
+      <c r="X116" s="25"/>
+      <c r="Y116" s="25"/>
+      <c r="Z116" s="25"/>
+      <c r="AA116" s="31"/>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="28"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="28"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
-      <c r="U117" s="22"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="22"/>
-      <c r="Y117" s="22"/>
-      <c r="Z117" s="22"/>
-      <c r="AA117" s="28"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="31"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="31"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="25"/>
+      <c r="T117" s="25"/>
+      <c r="U117" s="25"/>
+      <c r="V117" s="31"/>
+      <c r="W117" s="25"/>
+      <c r="X117" s="25"/>
+      <c r="Y117" s="25"/>
+      <c r="Z117" s="25"/>
+      <c r="AA117" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13392,217 +13404,219 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:P17"/>
+  <dimension ref="C5:Y49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:P8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88888888888889" style="10"/>
-    <col min="3" max="16" width="3.77777777777778" style="10" customWidth="1"/>
+    <col min="3" max="3" width="3.77777777777778" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" style="10" customWidth="1"/>
+    <col min="5" max="16" width="3.77777777777778" style="10" customWidth="1"/>
     <col min="17" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="5" ht="20" customHeight="1" spans="3:16">
       <c r="C5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="F5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="J5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="M5" s="11">
         <f ca="1" t="shared" ref="M5:M8" si="0">INT(RAND()*255)</f>
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="N5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="O5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="3:16">
       <c r="C6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="F6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="H6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="J6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="K6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="M6" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="N6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P6" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="H7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="J7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="K7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M7" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="N7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="O7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="P7" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>135</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:16">
       <c r="C8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="F8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="H8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="J8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="K8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M8" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="N8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="O8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="P8" s="11">
         <f ca="1">INT(RAND()*255)</f>
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -13756,6 +13770,790 @@
       <c r="P17" s="10">
         <v>239</v>
       </c>
+    </row>
+    <row r="38" spans="4:25">
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>47</v>
+      </c>
+      <c r="F38" s="12">
+        <v>50</v>
+      </c>
+      <c r="G38" s="12">
+        <v>70</v>
+      </c>
+      <c r="H38" s="12">
+        <v>101</v>
+      </c>
+      <c r="I38" s="12">
+        <v>110</v>
+      </c>
+      <c r="J38" s="12">
+        <v>151</v>
+      </c>
+      <c r="K38" s="12">
+        <v>163</v>
+      </c>
+      <c r="L38" s="12">
+        <v>216</v>
+      </c>
+      <c r="M38" s="12">
+        <v>223</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" s="12">
+        <v>146309</v>
+      </c>
+      <c r="P38" s="12">
+        <v>147657</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>147662</v>
+      </c>
+      <c r="R38" s="12">
+        <v>148166</v>
+      </c>
+      <c r="S38" s="12">
+        <v>152372</v>
+      </c>
+      <c r="T38" s="12">
+        <v>158956</v>
+      </c>
+      <c r="U38" s="12">
+        <v>160341</v>
+      </c>
+      <c r="V38" s="12">
+        <v>160836</v>
+      </c>
+      <c r="W38" s="12">
+        <v>163937</v>
+      </c>
+      <c r="X38" s="12">
+        <v>163981</v>
+      </c>
+      <c r="Y38" s="14"/>
+    </row>
+    <row r="39" spans="4:25">
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0.203125</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0.224806</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.081081</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0.053892</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0.192727</v>
+      </c>
+      <c r="K39" s="13">
+        <v>0.054348</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0.089947</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0.129944</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0.15534</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="S39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="T39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="U39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="V39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="W39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="X39" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>0.006289</v>
+      </c>
+    </row>
+    <row r="40" spans="4:25">
+      <c r="D40" s="13">
+        <v>47</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.203125</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0.285714</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.12426</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0.024691</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0.287449</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0.082353</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0.166667</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0.085714</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0.206349</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="S40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="T40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="V40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="W40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>0.006711</v>
+      </c>
+    </row>
+    <row r="41" spans="4:25">
+      <c r="D41" s="13">
+        <v>50</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0.224806</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.285714</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0.067485</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.220974</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0.072626</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0.108696</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0.118644</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0.222798</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="S41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="T41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="U41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="V41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="W41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="X41" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>0.006369</v>
+      </c>
+    </row>
+    <row r="42" spans="4:25">
+      <c r="D42" s="13">
+        <v>70</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.081081</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0.12426</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0.09434</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0.099476</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0.055556</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0.173333</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0.093333</v>
+      </c>
+      <c r="N42" s="13">
+        <v>0.176471</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="W42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>0.02439</v>
+      </c>
+    </row>
+    <row r="43" spans="4:25">
+      <c r="D43" s="13">
+        <v>101</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0.053892</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0.024691</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.067485</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0.09434</v>
+      </c>
+      <c r="I43" s="13">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0.027624</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0.019608</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0.084746</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0.078652</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0</v>
+      </c>
+      <c r="S43" s="13">
+        <v>0</v>
+      </c>
+      <c r="T43" s="13">
+        <v>0</v>
+      </c>
+      <c r="U43" s="13">
+        <v>0</v>
+      </c>
+      <c r="V43" s="13">
+        <v>0</v>
+      </c>
+      <c r="W43" s="13">
+        <v>0</v>
+      </c>
+      <c r="X43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:25">
+      <c r="D44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="4:25">
+      <c r="D45" s="13">
+        <v>158956</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
+        <v>0.005917</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P45" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>1</v>
+      </c>
+      <c r="R45" s="13">
+        <v>1</v>
+      </c>
+      <c r="S45" s="13">
+        <v>1</v>
+      </c>
+      <c r="T45" s="13">
+        <v>1</v>
+      </c>
+      <c r="U45" s="13">
+        <v>1</v>
+      </c>
+      <c r="V45" s="13">
+        <v>1</v>
+      </c>
+      <c r="W45" s="13">
+        <v>1</v>
+      </c>
+      <c r="X45" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:25">
+      <c r="D46" s="13">
+        <v>160341</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0.005917</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="13">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13">
+        <v>0</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>1</v>
+      </c>
+      <c r="R46" s="13">
+        <v>1</v>
+      </c>
+      <c r="S46" s="13">
+        <v>1</v>
+      </c>
+      <c r="T46" s="13">
+        <v>1</v>
+      </c>
+      <c r="U46" s="13">
+        <v>1</v>
+      </c>
+      <c r="V46" s="13">
+        <v>1</v>
+      </c>
+      <c r="W46" s="13">
+        <v>1</v>
+      </c>
+      <c r="X46" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:25">
+      <c r="D47" s="13">
+        <v>160836</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0.005917</v>
+      </c>
+      <c r="K47" s="13">
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>1</v>
+      </c>
+      <c r="R47" s="13">
+        <v>1</v>
+      </c>
+      <c r="S47" s="13">
+        <v>1</v>
+      </c>
+      <c r="T47" s="13">
+        <v>1</v>
+      </c>
+      <c r="U47" s="13">
+        <v>1</v>
+      </c>
+      <c r="V47" s="13">
+        <v>1</v>
+      </c>
+      <c r="W47" s="13">
+        <v>1</v>
+      </c>
+      <c r="X47" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:25">
+      <c r="D48" s="13">
+        <v>163937</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0.005917</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>1</v>
+      </c>
+      <c r="R48" s="13">
+        <v>1</v>
+      </c>
+      <c r="S48" s="13">
+        <v>1</v>
+      </c>
+      <c r="T48" s="13">
+        <v>1</v>
+      </c>
+      <c r="U48" s="13">
+        <v>1</v>
+      </c>
+      <c r="V48" s="13">
+        <v>1</v>
+      </c>
+      <c r="W48" s="13">
+        <v>1</v>
+      </c>
+      <c r="X48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:25">
+      <c r="D49" s="13">
+        <v>163981</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.006289</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0.006711</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.006369</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.02439</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
+        <v>0.0059</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
